--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -185,9 +185,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -274,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,6 +300,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,11 +323,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A507" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C514" activeCellId="0" sqref="C514"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A510" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F537" activeCellId="0" sqref="F537"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -15013,7 +15018,10 @@
       <c r="B515" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C515" s="1"/>
+      <c r="C515" s="1" t="n">
+        <f aca="false">I534-F534</f>
+        <v>8031</v>
+      </c>
       <c r="D515" s="4" t="n">
         <v>36</v>
       </c>
@@ -15040,7 +15048,10 @@
       <c r="B516" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C516" s="1"/>
+      <c r="C516" s="1" t="n">
+        <f aca="false">I535-F535</f>
+        <v>2441</v>
+      </c>
       <c r="D516" s="4" t="n">
         <v>47</v>
       </c>
@@ -15067,7 +15078,10 @@
       <c r="B517" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C517" s="1"/>
+      <c r="C517" s="1" t="n">
+        <f aca="false">I536-F536</f>
+        <v>627</v>
+      </c>
       <c r="D517" s="4" t="n">
         <v>1</v>
       </c>
@@ -15094,7 +15108,10 @@
       <c r="B518" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C518" s="1"/>
+      <c r="C518" s="1" t="n">
+        <f aca="false">I537-F537</f>
+        <v>1027</v>
+      </c>
       <c r="D518" s="4" t="n">
         <v>8</v>
       </c>
@@ -15121,7 +15138,10 @@
       <c r="B519" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C519" s="1"/>
+      <c r="C519" s="1" t="n">
+        <f aca="false">I538-F538</f>
+        <v>3052</v>
+      </c>
       <c r="D519" s="4" t="n">
         <v>24</v>
       </c>
@@ -15148,7 +15168,10 @@
       <c r="B520" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C520" s="1"/>
+      <c r="C520" s="1" t="n">
+        <f aca="false">I539-F539</f>
+        <v>1183</v>
+      </c>
       <c r="D520" s="4" t="n">
         <v>10</v>
       </c>
@@ -15175,7 +15198,10 @@
       <c r="B521" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C521" s="1"/>
+      <c r="C521" s="1" t="n">
+        <f aca="false">I540-F540</f>
+        <v>431</v>
+      </c>
       <c r="D521" s="4" t="n">
         <v>4</v>
       </c>
@@ -15202,7 +15228,10 @@
       <c r="B522" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C522" s="1"/>
+      <c r="C522" s="1" t="n">
+        <f aca="false">I541-F541</f>
+        <v>5059</v>
+      </c>
       <c r="D522" s="4" t="n">
         <v>18</v>
       </c>
@@ -15229,7 +15258,10 @@
       <c r="B523" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C523" s="1"/>
+      <c r="C523" s="1" t="n">
+        <f aca="false">I542-F542</f>
+        <v>5174</v>
+      </c>
       <c r="D523" s="4" t="n">
         <v>55</v>
       </c>
@@ -15256,7 +15288,10 @@
       <c r="B524" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C524" s="1"/>
+      <c r="C524" s="1" t="n">
+        <f aca="false">I543-F543</f>
+        <v>7073</v>
+      </c>
       <c r="D524" s="4" t="n">
         <v>6</v>
       </c>
@@ -15283,7 +15318,10 @@
       <c r="B525" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C525" s="1"/>
+      <c r="C525" s="1" t="n">
+        <f aca="false">I544-F544</f>
+        <v>82</v>
+      </c>
       <c r="D525" s="4" t="n">
         <v>1</v>
       </c>
@@ -15310,7 +15348,10 @@
       <c r="B526" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C526" s="1"/>
+      <c r="C526" s="1" t="n">
+        <f aca="false">I545-F545</f>
+        <v>1608</v>
+      </c>
       <c r="D526" s="4" t="n">
         <v>20</v>
       </c>
@@ -15337,7 +15378,10 @@
       <c r="B527" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C527" s="1"/>
+      <c r="C527" s="1" t="n">
+        <f aca="false">I546-F546</f>
+        <v>1675</v>
+      </c>
       <c r="D527" s="4" t="n">
         <v>21</v>
       </c>
@@ -15364,7 +15408,10 @@
       <c r="B528" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C528" s="1"/>
+      <c r="C528" s="1" t="n">
+        <f aca="false">I547-F547</f>
+        <v>743</v>
+      </c>
       <c r="D528" s="4" t="n">
         <v>16</v>
       </c>
@@ -15391,7 +15438,10 @@
       <c r="B529" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C529" s="1"/>
+      <c r="C529" s="1" t="n">
+        <f aca="false">I548-F548</f>
+        <v>28862</v>
+      </c>
       <c r="D529" s="4" t="n">
         <v>177</v>
       </c>
@@ -15418,7 +15468,10 @@
       <c r="B530" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C530" s="1"/>
+      <c r="C530" s="1" t="n">
+        <f aca="false">I549-F549</f>
+        <v>182</v>
+      </c>
       <c r="D530" s="4" t="n">
         <v>0</v>
       </c>
@@ -15445,7 +15498,10 @@
       <c r="B531" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C531" s="1"/>
+      <c r="C531" s="1" t="n">
+        <f aca="false">I550-F550</f>
+        <v>3295</v>
+      </c>
       <c r="D531" s="4" t="n">
         <v>2</v>
       </c>
@@ -15472,7 +15528,10 @@
       <c r="B532" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C532" s="1"/>
+      <c r="C532" s="1" t="n">
+        <f aca="false">I551-F551</f>
+        <v>2311</v>
+      </c>
       <c r="D532" s="4" t="n">
         <v>12</v>
       </c>
@@ -15499,7 +15558,10 @@
       <c r="B533" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C533" s="1"/>
+      <c r="C533" s="1" t="n">
+        <f aca="false">I552-F552</f>
+        <v>3094</v>
+      </c>
       <c r="D533" s="4" t="n">
         <v>42</v>
       </c>
@@ -15519,25 +15581,272 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F534" s="0" t="n">
+        <v>6304</v>
+      </c>
+      <c r="I534" s="0" t="n">
+        <v>14335</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A535" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F535" s="0" t="n">
+        <v>2398</v>
+      </c>
+      <c r="I535" s="0" t="n">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A536" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F536" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="I536" s="0" t="n">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F537" s="0" t="n">
+        <v>657</v>
+      </c>
+      <c r="I537" s="0" t="n">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F538" s="0" t="n">
+        <v>2112</v>
+      </c>
+      <c r="I538" s="0" t="n">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F539" s="0" t="n">
+        <v>1159</v>
+      </c>
+      <c r="I539" s="0" t="n">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F540" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="I540" s="0" t="n">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F541" s="0" t="n">
+        <v>3244</v>
+      </c>
+      <c r="I541" s="0" t="n">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A542" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F542" s="0" t="n">
+        <v>4026</v>
+      </c>
+      <c r="I542" s="0" t="n">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A543" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F543" s="0" t="n">
+        <v>4041</v>
+      </c>
+      <c r="I543" s="0" t="n">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A544" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F544" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I544" s="0" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F545" s="0" t="n">
+        <v>1263</v>
+      </c>
+      <c r="I545" s="0" t="n">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F546" s="0" t="n">
+        <v>1326</v>
+      </c>
+      <c r="I546" s="0" t="n">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F547" s="0" t="n">
+        <v>660</v>
+      </c>
+      <c r="I547" s="0" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F548" s="0" t="n">
+        <v>17509</v>
+      </c>
+      <c r="I548" s="0" t="n">
+        <v>46371</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F549" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="I549" s="0" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F550" s="0" t="n">
+        <v>2525</v>
+      </c>
+      <c r="I550" s="0" t="n">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F551" s="0" t="n">
+        <v>2150</v>
+      </c>
+      <c r="I551" s="0" t="n">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F552" s="0" t="n">
+        <v>2623</v>
+      </c>
+      <c r="I552" s="0" t="n">
+        <v>5717</v>
+      </c>
+    </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -323,11 +323,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A510" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F537" activeCellId="0" sqref="F537"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A585" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D610" activeCellId="0" sqref="D610"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -15588,6 +15588,13 @@
       <c r="B534" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C534" s="1" t="n">
+        <f aca="false">I553-F553</f>
+        <v>8323</v>
+      </c>
+      <c r="D534" s="0" t="n">
+        <v>89</v>
+      </c>
       <c r="F534" s="0" t="n">
         <v>6304</v>
       </c>
@@ -15602,6 +15609,13 @@
       <c r="B535" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C535" s="1" t="n">
+        <f aca="false">I554-F554</f>
+        <v>2408</v>
+      </c>
+      <c r="D535" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F535" s="0" t="n">
         <v>2398</v>
       </c>
@@ -15616,6 +15630,13 @@
       <c r="B536" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C536" s="1" t="n">
+        <f aca="false">I555-F555</f>
+        <v>640</v>
+      </c>
+      <c r="D536" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F536" s="0" t="n">
         <v>640</v>
       </c>
@@ -15630,6 +15651,13 @@
       <c r="B537" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C537" s="1" t="n">
+        <f aca="false">I556-F556</f>
+        <v>786</v>
+      </c>
+      <c r="D537" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="F537" s="0" t="n">
         <v>657</v>
       </c>
@@ -15644,6 +15672,13 @@
       <c r="B538" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C538" s="1" t="n">
+        <f aca="false">I557-F557</f>
+        <v>2723</v>
+      </c>
+      <c r="D538" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="F538" s="0" t="n">
         <v>2112</v>
       </c>
@@ -15658,6 +15693,13 @@
       <c r="B539" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C539" s="1" t="n">
+        <f aca="false">I558-F558</f>
+        <v>1170</v>
+      </c>
+      <c r="D539" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="F539" s="0" t="n">
         <v>1159</v>
       </c>
@@ -15672,6 +15714,13 @@
       <c r="B540" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C540" s="1" t="n">
+        <f aca="false">I559-F559</f>
+        <v>350</v>
+      </c>
+      <c r="D540" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F540" s="0" t="n">
         <v>351</v>
       </c>
@@ -15686,6 +15735,13 @@
       <c r="B541" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C541" s="1" t="n">
+        <f aca="false">I560-F560</f>
+        <v>4315</v>
+      </c>
+      <c r="D541" s="0" t="n">
+        <v>28</v>
+      </c>
       <c r="F541" s="0" t="n">
         <v>3244</v>
       </c>
@@ -15700,6 +15756,13 @@
       <c r="B542" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C542" s="1" t="n">
+        <f aca="false">I561-F561</f>
+        <v>5144</v>
+      </c>
+      <c r="D542" s="0" t="n">
+        <v>96</v>
+      </c>
       <c r="F542" s="0" t="n">
         <v>4026</v>
       </c>
@@ -15714,6 +15777,13 @@
       <c r="B543" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C543" s="1" t="n">
+        <f aca="false">I562-F562</f>
+        <v>7250</v>
+      </c>
+      <c r="D543" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="F543" s="0" t="n">
         <v>4041</v>
       </c>
@@ -15728,6 +15798,13 @@
       <c r="B544" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C544" s="1" t="n">
+        <f aca="false">I563-F563</f>
+        <v>117</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F544" s="0" t="n">
         <v>110</v>
       </c>
@@ -15742,6 +15819,13 @@
       <c r="B545" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C545" s="1" t="n">
+        <f aca="false">I564-F564</f>
+        <v>1260</v>
+      </c>
+      <c r="D545" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F545" s="0" t="n">
         <v>1263</v>
       </c>
@@ -15756,6 +15840,13 @@
       <c r="B546" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C546" s="1" t="n">
+        <f aca="false">I565-F565</f>
+        <v>1335</v>
+      </c>
+      <c r="D546" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="F546" s="0" t="n">
         <v>1326</v>
       </c>
@@ -15770,6 +15861,13 @@
       <c r="B547" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C547" s="1" t="n">
+        <f aca="false">I566-F566</f>
+        <v>663</v>
+      </c>
+      <c r="D547" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="F547" s="0" t="n">
         <v>660</v>
       </c>
@@ -15784,6 +15882,13 @@
       <c r="B548" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C548" s="1" t="n">
+        <f aca="false">I567-F567</f>
+        <v>22250</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>63</v>
+      </c>
       <c r="F548" s="0" t="n">
         <v>17509</v>
       </c>
@@ -15798,6 +15903,13 @@
       <c r="B549" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C549" s="1" t="n">
+        <f aca="false">I568-F568</f>
+        <v>198</v>
+      </c>
+      <c r="D549" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F549" s="0" t="n">
         <v>190</v>
       </c>
@@ -15812,6 +15924,13 @@
       <c r="B550" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C550" s="1" t="n">
+        <f aca="false">I569-F569</f>
+        <v>2967</v>
+      </c>
+      <c r="D550" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="F550" s="0" t="n">
         <v>2525</v>
       </c>
@@ -15826,6 +15945,13 @@
       <c r="B551" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C551" s="1" t="n">
+        <f aca="false">I570-F570</f>
+        <v>2164</v>
+      </c>
+      <c r="D551" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F551" s="0" t="n">
         <v>2150</v>
       </c>
@@ -15840,6 +15966,13 @@
       <c r="B552" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C552" s="1" t="n">
+        <f aca="false">I571-F571</f>
+        <v>2645</v>
+      </c>
+      <c r="D552" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="F552" s="0" t="n">
         <v>2623</v>
       </c>
@@ -15847,82 +15980,1469 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A553" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C553" s="1" t="n">
+        <f aca="false">I572-F572</f>
+        <v>9453</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F553" s="0" t="n">
+        <v>6315</v>
+      </c>
+      <c r="I553" s="0" t="n">
+        <v>14638</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A554" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C554" s="1" t="n">
+        <f aca="false">I573-F573</f>
+        <v>2608</v>
+      </c>
+      <c r="D554" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F554" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="I554" s="0" t="n">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A555" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C555" s="1" t="n">
+        <f aca="false">I574-F574</f>
+        <v>725</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F555" s="0" t="n">
+        <v>724</v>
+      </c>
+      <c r="I555" s="0" t="n">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A556" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" s="1" t="n">
+        <f aca="false">I575-F575</f>
+        <v>706</v>
+      </c>
+      <c r="D556" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F556" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="I556" s="0" t="n">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A557" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C557" s="1" t="n">
+        <f aca="false">I576-F576</f>
+        <v>3086</v>
+      </c>
+      <c r="D557" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F557" s="0" t="n">
+        <v>2497</v>
+      </c>
+      <c r="I557" s="0" t="n">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A558" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C558" s="1" t="n">
+        <f aca="false">I577-F577</f>
+        <v>905</v>
+      </c>
+      <c r="D558" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F558" s="0" t="n">
+        <v>896</v>
+      </c>
+      <c r="I558" s="0" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A559" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C559" s="1" t="n">
+        <f aca="false">I578-F578</f>
+        <v>312</v>
+      </c>
+      <c r="D559" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F559" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="I559" s="0" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A560" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C560" s="1" t="n">
+        <f aca="false">I579-F579</f>
+        <v>3939</v>
+      </c>
+      <c r="D560" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F560" s="0" t="n">
+        <v>3195</v>
+      </c>
+      <c r="I560" s="0" t="n">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C561" s="1" t="n">
+        <f aca="false">I580-F580</f>
+        <v>4940</v>
+      </c>
+      <c r="D561" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F561" s="0" t="n">
+        <v>3847</v>
+      </c>
+      <c r="I561" s="0" t="n">
+        <v>8991</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C562" s="1" t="n">
+        <f aca="false">I581-F581</f>
+        <v>10417</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F562" s="0" t="n">
+        <v>7692</v>
+      </c>
+      <c r="I562" s="0" t="n">
+        <v>14942</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C563" s="1" t="n">
+        <f aca="false">I582-F582</f>
+        <v>128</v>
+      </c>
+      <c r="D563" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F563" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="I563" s="0" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A564" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C564" s="1" t="n">
+        <f aca="false">I583-F583</f>
+        <v>1201</v>
+      </c>
+      <c r="D564" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F564" s="0" t="n">
+        <v>1174</v>
+      </c>
+      <c r="I564" s="0" t="n">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A565" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C565" s="1" t="n">
+        <f aca="false">I584-F584</f>
+        <v>1590</v>
+      </c>
+      <c r="D565" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F565" s="0" t="n">
+        <v>1580</v>
+      </c>
+      <c r="I565" s="0" t="n">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A566" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C566" s="1" t="n">
+        <f aca="false">I585-F585</f>
+        <v>597</v>
+      </c>
+      <c r="D566" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F566" s="0" t="n">
+        <v>589</v>
+      </c>
+      <c r="I566" s="0" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A567" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C567" s="1" t="n">
+        <f aca="false">I586-F586</f>
+        <v>17067</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F567" s="0" t="n">
+        <v>15322</v>
+      </c>
+      <c r="I567" s="0" t="n">
+        <v>37572</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A568" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C568" s="1" t="n">
+        <f aca="false">I587-F587</f>
+        <v>198</v>
+      </c>
+      <c r="D568" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F568" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="I568" s="0" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C569" s="1" t="n">
+        <f aca="false">I588-F588</f>
+        <v>2940</v>
+      </c>
+      <c r="D569" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F569" s="0" t="n">
+        <v>2437</v>
+      </c>
+      <c r="I569" s="0" t="n">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A570" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C570" s="1" t="n">
+        <f aca="false">I589-F589</f>
+        <v>2144</v>
+      </c>
+      <c r="D570" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F570" s="0" t="n">
+        <v>2127</v>
+      </c>
+      <c r="I570" s="0" t="n">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C571" s="1" t="n">
+        <f aca="false">I590-F590</f>
+        <v>2609</v>
+      </c>
+      <c r="D571" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F571" s="0" t="n">
+        <v>2586</v>
+      </c>
+      <c r="I571" s="0" t="n">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C572" s="1" t="n">
+        <f aca="false">I591-F591</f>
+        <v>12623</v>
+      </c>
+      <c r="D572" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F572" s="0" t="n">
+        <v>7897</v>
+      </c>
+      <c r="I572" s="0" t="n">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C573" s="1" t="n">
+        <f aca="false">I592-F592</f>
+        <v>3179</v>
+      </c>
+      <c r="D573" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F573" s="0" t="n">
+        <v>3120</v>
+      </c>
+      <c r="I573" s="0" t="n">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C574" s="1" t="n">
+        <f aca="false">I593-F593</f>
+        <v>1267</v>
+      </c>
+      <c r="D574" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F574" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="I574" s="0" t="n">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575" s="1" t="n">
+        <f aca="false">I594-F594</f>
+        <v>822</v>
+      </c>
+      <c r="D575" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F575" s="0" t="n">
+        <v>686</v>
+      </c>
+      <c r="I575" s="0" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C576" s="1" t="n">
+        <f aca="false">I595-F595</f>
+        <v>3482</v>
+      </c>
+      <c r="D576" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F576" s="0" t="n">
+        <v>2255</v>
+      </c>
+      <c r="I576" s="0" t="n">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C577" s="1" t="n">
+        <f aca="false">I596-F596</f>
+        <v>828</v>
+      </c>
+      <c r="D577" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F577" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="I577" s="0" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C578" s="1" t="n">
+        <f aca="false">I597-F597</f>
+        <v>374</v>
+      </c>
+      <c r="D578" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F578" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="I578" s="0" t="n">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C579" s="1" t="n">
+        <f aca="false">I598-F598</f>
+        <v>4117</v>
+      </c>
+      <c r="D579" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F579" s="0" t="n">
+        <v>2847</v>
+      </c>
+      <c r="I579" s="0" t="n">
+        <v>6786</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C580" s="1" t="n">
+        <f aca="false">I599-F599</f>
+        <v>5927</v>
+      </c>
+      <c r="D580" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F580" s="0" t="n">
+        <v>5103</v>
+      </c>
+      <c r="I580" s="0" t="n">
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C581" s="1" t="n">
+        <f aca="false">I600-F600</f>
+        <v>15053</v>
+      </c>
+      <c r="D581" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F581" s="0" t="n">
+        <v>10477</v>
+      </c>
+      <c r="I581" s="0" t="n">
+        <v>20894</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C582" s="1" t="n">
+        <f aca="false">I601-F601</f>
+        <v>167</v>
+      </c>
+      <c r="D582" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F582" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="I582" s="0" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C583" s="1" t="n">
+        <f aca="false">I602-F602</f>
+        <v>1487</v>
+      </c>
+      <c r="D583" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F583" s="0" t="n">
+        <v>1472</v>
+      </c>
+      <c r="I583" s="0" t="n">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C584" s="1" t="n">
+        <f aca="false">I603-F603</f>
+        <v>2211</v>
+      </c>
+      <c r="D584" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F584" s="0" t="n">
+        <v>2195</v>
+      </c>
+      <c r="I584" s="0" t="n">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C585" s="1" t="n">
+        <f aca="false">I604-F604</f>
+        <v>776</v>
+      </c>
+      <c r="D585" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F585" s="0" t="n">
+        <v>768</v>
+      </c>
+      <c r="I585" s="0" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C586" s="1" t="n">
+        <f aca="false">I605-F605</f>
+        <v>14307</v>
+      </c>
+      <c r="D586" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="F586" s="0" t="n">
+        <v>12981</v>
+      </c>
+      <c r="I586" s="0" t="n">
+        <v>30048</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C587" s="1" t="n">
+        <f aca="false">I606-F606</f>
+        <v>295</v>
+      </c>
+      <c r="D587" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F587" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="I587" s="0" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A588" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C588" s="1" t="n">
+        <f aca="false">I607-F607</f>
+        <v>2815</v>
+      </c>
+      <c r="D588" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F588" s="0" t="n">
+        <v>2068</v>
+      </c>
+      <c r="I588" s="0" t="n">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C589" s="1" t="n">
+        <f aca="false">I608-F608</f>
+        <v>2216</v>
+      </c>
+      <c r="D589" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F589" s="0" t="n">
+        <v>3162</v>
+      </c>
+      <c r="I589" s="0" t="n">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A590" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C590" s="1" t="n">
+        <f aca="false">I609-F609</f>
+        <v>3613</v>
+      </c>
+      <c r="D590" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F590" s="0" t="n">
+        <v>3505</v>
+      </c>
+      <c r="I590" s="0" t="n">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A591" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C591" s="1" t="n">
+        <f aca="false">I610-F610</f>
+        <v>20629</v>
+      </c>
+      <c r="D591" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="F591" s="0" t="n">
+        <v>13653</v>
+      </c>
+      <c r="I591" s="0" t="n">
+        <v>26276</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A592" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C592" s="1" t="n">
+        <f aca="false">I611-F611</f>
+        <v>5227</v>
+      </c>
+      <c r="D592" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="F592" s="0" t="n">
+        <v>5125</v>
+      </c>
+      <c r="I592" s="0" t="n">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A593" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C593" s="1" t="n">
+        <f aca="false">I612-F612</f>
+        <v>1609</v>
+      </c>
+      <c r="D593" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F593" s="0" t="n">
+        <v>1608</v>
+      </c>
+      <c r="I593" s="0" t="n">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A594" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" s="1" t="n">
+        <f aca="false">I613-F613</f>
+        <v>989</v>
+      </c>
+      <c r="D594" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F594" s="0" t="n">
+        <v>828</v>
+      </c>
+      <c r="I594" s="0" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A595" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C595" s="1" t="n">
+        <f aca="false">I614-F614</f>
+        <v>6084</v>
+      </c>
+      <c r="D595" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F595" s="0" t="n">
+        <v>3631</v>
+      </c>
+      <c r="I595" s="0" t="n">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A596" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C596" s="1" t="n">
+        <f aca="false">I615-F615</f>
+        <v>956</v>
+      </c>
+      <c r="D596" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F596" s="0" t="n">
+        <v>954</v>
+      </c>
+      <c r="I596" s="0" t="n">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A597" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C597" s="1" t="n">
+        <f aca="false">I616-F616</f>
+        <v>850</v>
+      </c>
+      <c r="D597" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F597" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="I597" s="0" t="n">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A598" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C598" s="1" t="n">
+        <f aca="false">I617-F617</f>
+        <v>5069</v>
+      </c>
+      <c r="D598" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F598" s="0" t="n">
+        <v>3409</v>
+      </c>
+      <c r="I598" s="0" t="n">
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A599" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C599" s="1" t="n">
+        <f aca="false">I618-F618</f>
+        <v>8921</v>
+      </c>
+      <c r="D599" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="F599" s="0" t="n">
+        <v>6852</v>
+      </c>
+      <c r="I599" s="0" t="n">
+        <v>12779</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A600" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C600" s="1" t="n">
+        <f aca="false">I619-F619</f>
+        <v>26451</v>
+      </c>
+      <c r="D600" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F600" s="0" t="n">
+        <v>17924</v>
+      </c>
+      <c r="I600" s="0" t="n">
+        <v>32977</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A601" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C601" s="1" t="n">
+        <f aca="false">I620-F620</f>
+        <v>217</v>
+      </c>
+      <c r="D601" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F601" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="I601" s="0" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A602" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C602" s="1" t="n">
+        <f aca="false">I621-F621</f>
+        <v>2099</v>
+      </c>
+      <c r="D602" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F602" s="0" t="n">
+        <v>2063</v>
+      </c>
+      <c r="I602" s="0" t="n">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A603" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C603" s="1" t="n">
+        <f aca="false">I622-F622</f>
+        <v>2922</v>
+      </c>
+      <c r="D603" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F603" s="0" t="n">
+        <v>2886</v>
+      </c>
+      <c r="I603" s="0" t="n">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A604" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C604" s="1" t="n">
+        <f aca="false">I623-F623</f>
+        <v>1141</v>
+      </c>
+      <c r="D604" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F604" s="0" t="n">
+        <v>1130</v>
+      </c>
+      <c r="I604" s="0" t="n">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A605" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C605" s="1" t="n">
+        <f aca="false">I624-F624</f>
+        <v>15178</v>
+      </c>
+      <c r="D605" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="F605" s="0" t="n">
+        <v>14195</v>
+      </c>
+      <c r="I605" s="0" t="n">
+        <v>28502</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A606" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C606" s="1" t="n">
+        <f aca="false">I625-F625</f>
+        <v>517</v>
+      </c>
+      <c r="D606" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F606" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="I606" s="0" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A607" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C607" s="1" t="n">
+        <f aca="false">I626-F626</f>
+        <v>3685</v>
+      </c>
+      <c r="D607" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F607" s="0" t="n">
+        <v>2790</v>
+      </c>
+      <c r="I607" s="0" t="n">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A608" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C608" s="1" t="n">
+        <f aca="false">I627-F627</f>
+        <v>3769</v>
+      </c>
+      <c r="D608" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F608" s="0" t="n">
+        <v>4709</v>
+      </c>
+      <c r="I608" s="0" t="n">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A609" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C609" s="1" t="n">
+        <f aca="false">I628-F628</f>
+        <v>5525</v>
+      </c>
+      <c r="D609" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F609" s="0" t="n">
+        <v>5300</v>
+      </c>
+      <c r="I609" s="0" t="n">
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A610" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F610" s="0" t="n">
+        <v>15045</v>
+      </c>
+      <c r="I610" s="0" t="n">
+        <v>35674</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A611" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F611" s="0" t="n">
+        <v>7756</v>
+      </c>
+      <c r="I611" s="0" t="n">
+        <v>12983</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A612" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F612" s="0" t="n">
+        <v>2236</v>
+      </c>
+      <c r="I612" s="0" t="n">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A613" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F613" s="0" t="n">
+        <v>1262</v>
+      </c>
+      <c r="I613" s="0" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A614" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F614" s="0" t="n">
+        <v>4844</v>
+      </c>
+      <c r="I614" s="0" t="n">
+        <v>10928</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A615" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F615" s="0" t="n">
+        <v>737</v>
+      </c>
+      <c r="I615" s="0" t="n">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A616" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F616" s="0" t="n">
+        <v>1134</v>
+      </c>
+      <c r="I616" s="0" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A617" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F617" s="0" t="n">
+        <v>4706</v>
+      </c>
+      <c r="I617" s="0" t="n">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A618" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F618" s="0" t="n">
+        <v>8706</v>
+      </c>
+      <c r="I618" s="0" t="n">
+        <v>17627</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A619" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F619" s="0" t="n">
+        <v>25783</v>
+      </c>
+      <c r="I619" s="0" t="n">
+        <v>52234</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A620" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F620" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="I620" s="0" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A621" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F621" s="0" t="n">
+        <v>3156</v>
+      </c>
+      <c r="I621" s="0" t="n">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A622" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F622" s="0" t="n">
+        <v>4357</v>
+      </c>
+      <c r="I622" s="0" t="n">
+        <v>7279</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A623" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F623" s="0" t="n">
+        <v>1191</v>
+      </c>
+      <c r="I623" s="0" t="n">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A624" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F624" s="0" t="n">
+        <v>12861</v>
+      </c>
+      <c r="I624" s="0" t="n">
+        <v>28039</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A625" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F625" s="0" t="n">
+        <v>599</v>
+      </c>
+      <c r="I625" s="0" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A626" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F626" s="0" t="n">
+        <v>3010</v>
+      </c>
+      <c r="I626" s="0" t="n">
+        <v>6695</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A627" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F627" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I627" s="0" t="n">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A628" s="6" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F628" s="0" t="n">
+        <v>6706</v>
+      </c>
+      <c r="I628" s="0" t="n">
+        <v>12231</v>
+      </c>
+    </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -323,8 +323,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A585" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D610" activeCellId="0" sqref="D610"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A586" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C605" activeCellId="0" sqref="C605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17443,25 +17443,158 @@
         <v>12231</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A629" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A630" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A631" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A632" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A633" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A634" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A635" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A636" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A637" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A638" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A639" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A640" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A641" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A642" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A643" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A644" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A645" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A646" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A647" s="6" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -323,11 +323,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A586" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C605" activeCellId="0" sqref="C605"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A607" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D627" activeCellId="0" sqref="D627"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -17184,6 +17184,13 @@
       <c r="B610" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C610" s="1" t="n">
+        <f aca="false">I629-F629</f>
+        <v>26213</v>
+      </c>
+      <c r="D610" s="0" t="n">
+        <v>158</v>
+      </c>
       <c r="F610" s="0" t="n">
         <v>15045</v>
       </c>
@@ -17198,6 +17205,13 @@
       <c r="B611" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C611" s="1" t="n">
+        <f aca="false">I630-F630</f>
+        <v>7786</v>
+      </c>
+      <c r="D611" s="0" t="n">
+        <v>107</v>
+      </c>
       <c r="F611" s="0" t="n">
         <v>7756</v>
       </c>
@@ -17212,6 +17226,13 @@
       <c r="B612" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C612" s="1" t="n">
+        <f aca="false">I631-F631</f>
+        <v>2255</v>
+      </c>
+      <c r="D612" s="0" t="n">
+        <v>86</v>
+      </c>
       <c r="F612" s="0" t="n">
         <v>2236</v>
       </c>
@@ -17226,6 +17247,13 @@
       <c r="B613" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C613" s="1" t="n">
+        <f aca="false">I632-F632</f>
+        <v>1492</v>
+      </c>
+      <c r="D613" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="F613" s="0" t="n">
         <v>1262</v>
       </c>
@@ -17240,6 +17268,13 @@
       <c r="B614" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C614" s="1" t="n">
+        <f aca="false">I633-F633</f>
+        <v>7818</v>
+      </c>
+      <c r="D614" s="0" t="n">
+        <v>60</v>
+      </c>
       <c r="F614" s="0" t="n">
         <v>4844</v>
       </c>
@@ -17254,6 +17289,13 @@
       <c r="B615" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C615" s="1" t="n">
+        <f aca="false">I634-F634</f>
+        <v>750</v>
+      </c>
+      <c r="D615" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F615" s="0" t="n">
         <v>737</v>
       </c>
@@ -17268,6 +17310,13 @@
       <c r="B616" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C616" s="1" t="n">
+        <f aca="false">I635-F635</f>
+        <v>1134</v>
+      </c>
+      <c r="D616" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F616" s="0" t="n">
         <v>1134</v>
       </c>
@@ -17282,6 +17331,13 @@
       <c r="B617" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C617" s="1" t="n">
+        <f aca="false">I636-F636</f>
+        <v>6687</v>
+      </c>
+      <c r="D617" s="0" t="n">
+        <v>35</v>
+      </c>
       <c r="F617" s="0" t="n">
         <v>4706</v>
       </c>
@@ -17296,6 +17352,13 @@
       <c r="B618" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C618" s="1" t="n">
+        <f aca="false">I637-F637</f>
+        <v>10893</v>
+      </c>
+      <c r="D618" s="0" t="n">
+        <v>163</v>
+      </c>
       <c r="F618" s="0" t="n">
         <v>8706</v>
       </c>
@@ -17310,6 +17373,13 @@
       <c r="B619" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C619" s="1" t="n">
+        <f aca="false">I638-F638</f>
+        <v>32930</v>
+      </c>
+      <c r="D619" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="F619" s="0" t="n">
         <v>25783</v>
       </c>
@@ -17324,6 +17394,13 @@
       <c r="B620" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C620" s="1" t="n">
+        <f aca="false">I639-F639</f>
+        <v>362</v>
+      </c>
+      <c r="D620" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="F620" s="0" t="n">
         <v>337</v>
       </c>
@@ -17338,6 +17415,13 @@
       <c r="B621" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C621" s="1" t="n">
+        <f aca="false">I640-F640</f>
+        <v>3194</v>
+      </c>
+      <c r="D621" s="0" t="n">
+        <v>47</v>
+      </c>
       <c r="F621" s="0" t="n">
         <v>3156</v>
       </c>
@@ -17352,6 +17436,13 @@
       <c r="B622" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C622" s="1" t="n">
+        <f aca="false">I641-F641</f>
+        <v>4398</v>
+      </c>
+      <c r="D622" s="0" t="n">
+        <v>76</v>
+      </c>
       <c r="F622" s="0" t="n">
         <v>4357</v>
       </c>
@@ -17366,6 +17457,13 @@
       <c r="B623" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C623" s="1" t="n">
+        <f aca="false">I642-F642</f>
+        <v>1206</v>
+      </c>
+      <c r="D623" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="F623" s="0" t="n">
         <v>1191</v>
       </c>
@@ -17380,6 +17478,13 @@
       <c r="B624" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C624" s="1" t="n">
+        <f aca="false">I643-F643</f>
+        <v>13742</v>
+      </c>
+      <c r="D624" s="0" t="n">
+        <v>83</v>
+      </c>
       <c r="F624" s="0" t="n">
         <v>12861</v>
       </c>
@@ -17394,6 +17499,13 @@
       <c r="B625" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C625" s="1" t="n">
+        <f aca="false">I644-F644</f>
+        <v>650</v>
+      </c>
+      <c r="D625" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F625" s="0" t="n">
         <v>599</v>
       </c>
@@ -17408,6 +17520,13 @@
       <c r="B626" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C626" s="1" t="n">
+        <f aca="false">I645-F645</f>
+        <v>5473</v>
+      </c>
+      <c r="D626" s="0" t="n">
+        <v>53</v>
+      </c>
       <c r="F626" s="0" t="n">
         <v>3010</v>
       </c>
@@ -17422,6 +17541,13 @@
       <c r="B627" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C627" s="1" t="n">
+        <f aca="false">I646-F646</f>
+        <v>4007</v>
+      </c>
+      <c r="D627" s="0" t="n">
+        <v>34</v>
+      </c>
       <c r="F627" s="0" t="n">
         <v>3900</v>
       </c>
@@ -17436,6 +17562,13 @@
       <c r="B628" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C628" s="1" t="n">
+        <f aca="false">I647-F647</f>
+        <v>7407</v>
+      </c>
+      <c r="D628" s="0" t="n">
+        <v>27</v>
+      </c>
       <c r="F628" s="0" t="n">
         <v>6706</v>
       </c>
@@ -17450,6 +17583,12 @@
       <c r="B629" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F629" s="0" t="n">
+        <v>19295</v>
+      </c>
+      <c r="I629" s="0" t="n">
+        <v>45508</v>
+      </c>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="6" t="n">
@@ -17458,6 +17597,12 @@
       <c r="B630" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F630" s="0" t="n">
+        <v>6664</v>
+      </c>
+      <c r="I630" s="0" t="n">
+        <v>14450</v>
+      </c>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="6" t="n">
@@ -17466,6 +17611,12 @@
       <c r="B631" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F631" s="0" t="n">
+        <v>2311</v>
+      </c>
+      <c r="I631" s="0" t="n">
+        <v>4566</v>
+      </c>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="6" t="n">
@@ -17474,6 +17625,12 @@
       <c r="B632" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F632" s="0" t="n">
+        <v>1312</v>
+      </c>
+      <c r="I632" s="0" t="n">
+        <v>2804</v>
+      </c>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="6" t="n">
@@ -17482,6 +17639,12 @@
       <c r="B633" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F633" s="0" t="n">
+        <v>5122</v>
+      </c>
+      <c r="I633" s="0" t="n">
+        <v>12940</v>
+      </c>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="6" t="n">
@@ -17490,6 +17653,12 @@
       <c r="B634" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F634" s="0" t="n">
+        <v>808</v>
+      </c>
+      <c r="I634" s="0" t="n">
+        <v>1558</v>
+      </c>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="6" t="n">
@@ -17498,6 +17667,12 @@
       <c r="B635" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F635" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="I635" s="0" t="n">
+        <v>2426</v>
+      </c>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="6" t="n">
@@ -17506,6 +17681,12 @@
       <c r="B636" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F636" s="0" t="n">
+        <v>4530</v>
+      </c>
+      <c r="I636" s="0" t="n">
+        <v>11217</v>
+      </c>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="6" t="n">
@@ -17514,6 +17695,12 @@
       <c r="B637" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F637" s="0" t="n">
+        <v>8340</v>
+      </c>
+      <c r="I637" s="0" t="n">
+        <v>19233</v>
+      </c>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="6" t="n">
@@ -17522,6 +17709,12 @@
       <c r="B638" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F638" s="0" t="n">
+        <v>24052</v>
+      </c>
+      <c r="I638" s="0" t="n">
+        <v>56982</v>
+      </c>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="6" t="n">
@@ -17530,6 +17723,12 @@
       <c r="B639" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F639" s="0" t="n">
+        <v>437</v>
+      </c>
+      <c r="I639" s="0" t="n">
+        <v>799</v>
+      </c>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="6" t="n">
@@ -17538,6 +17737,12 @@
       <c r="B640" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F640" s="0" t="n">
+        <v>3023</v>
+      </c>
+      <c r="I640" s="0" t="n">
+        <v>6217</v>
+      </c>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="6" t="n">
@@ -17546,6 +17751,12 @@
       <c r="B641" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F641" s="0" t="n">
+        <v>4566</v>
+      </c>
+      <c r="I641" s="0" t="n">
+        <v>8964</v>
+      </c>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="6" t="n">
@@ -17554,6 +17765,12 @@
       <c r="B642" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F642" s="0" t="n">
+        <v>1278</v>
+      </c>
+      <c r="I642" s="0" t="n">
+        <v>2484</v>
+      </c>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="6" t="n">
@@ -17562,6 +17779,12 @@
       <c r="B643" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F643" s="0" t="n">
+        <v>10658</v>
+      </c>
+      <c r="I643" s="0" t="n">
+        <v>24400</v>
+      </c>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="6" t="n">
@@ -17570,6 +17793,12 @@
       <c r="B644" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F644" s="0" t="n">
+        <v>553</v>
+      </c>
+      <c r="I644" s="0" t="n">
+        <v>1203</v>
+      </c>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="6" t="n">
@@ -17578,6 +17807,12 @@
       <c r="B645" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F645" s="0" t="n">
+        <v>4132</v>
+      </c>
+      <c r="I645" s="0" t="n">
+        <v>9605</v>
+      </c>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="6" t="n">
@@ -17586,6 +17821,12 @@
       <c r="B646" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F646" s="0" t="n">
+        <v>3455</v>
+      </c>
+      <c r="I646" s="0" t="n">
+        <v>7462</v>
+      </c>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="6" t="n">
@@ -17593,6 +17834,12 @@
       </c>
       <c r="B647" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F647" s="0" t="n">
+        <v>7742</v>
+      </c>
+      <c r="I647" s="0" t="n">
+        <v>15149</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -323,11 +323,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A607" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D627" activeCellId="0" sqref="D627"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A682" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D703" activeCellId="0" sqref="D703"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -17583,6 +17583,13 @@
       <c r="B629" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C629" s="1" t="n">
+        <f aca="false">I648-F648</f>
+        <v>24978</v>
+      </c>
+      <c r="D629" s="0" t="n">
+        <v>218</v>
+      </c>
       <c r="F629" s="0" t="n">
         <v>19295</v>
       </c>
@@ -17597,6 +17604,13 @@
       <c r="B630" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C630" s="1" t="n">
+        <f aca="false">I649-F649</f>
+        <v>6725</v>
+      </c>
+      <c r="D630" s="0" t="n">
+        <v>171</v>
+      </c>
       <c r="F630" s="0" t="n">
         <v>6664</v>
       </c>
@@ -17611,6 +17625,13 @@
       <c r="B631" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C631" s="1" t="n">
+        <f aca="false">I650-F650</f>
+        <v>2317</v>
+      </c>
+      <c r="D631" s="0" t="n">
+        <v>120</v>
+      </c>
       <c r="F631" s="0" t="n">
         <v>2311</v>
       </c>
@@ -17625,6 +17646,13 @@
       <c r="B632" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C632" s="1" t="n">
+        <f aca="false">I651-F651</f>
+        <v>1516</v>
+      </c>
+      <c r="D632" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="F632" s="0" t="n">
         <v>1312</v>
       </c>
@@ -17639,6 +17667,13 @@
       <c r="B633" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C633" s="1" t="n">
+        <f aca="false">I652-F652</f>
+        <v>8717</v>
+      </c>
+      <c r="D633" s="0" t="n">
+        <v>79</v>
+      </c>
       <c r="F633" s="0" t="n">
         <v>5122</v>
       </c>
@@ -17653,6 +17688,13 @@
       <c r="B634" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C634" s="1" t="n">
+        <f aca="false">I653-F653</f>
+        <v>831</v>
+      </c>
+      <c r="D634" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="F634" s="0" t="n">
         <v>808</v>
       </c>
@@ -17667,6 +17709,13 @@
       <c r="B635" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C635" s="1" t="n">
+        <f aca="false">I654-F654</f>
+        <v>1292</v>
+      </c>
+      <c r="D635" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="F635" s="0" t="n">
         <v>1292</v>
       </c>
@@ -17681,6 +17730,13 @@
       <c r="B636" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C636" s="1" t="n">
+        <f aca="false">I655-F655</f>
+        <v>6079</v>
+      </c>
+      <c r="D636" s="0" t="n">
+        <v>55</v>
+      </c>
       <c r="F636" s="0" t="n">
         <v>4530</v>
       </c>
@@ -17695,6 +17751,13 @@
       <c r="B637" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C637" s="1" t="n">
+        <f aca="false">I656-F656</f>
+        <v>11090</v>
+      </c>
+      <c r="D637" s="0" t="n">
+        <v>176</v>
+      </c>
       <c r="F637" s="0" t="n">
         <v>8340</v>
       </c>
@@ -17709,6 +17772,13 @@
       <c r="B638" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C638" s="1" t="n">
+        <f aca="false">I657-F657</f>
+        <v>28588</v>
+      </c>
+      <c r="D638" s="0" t="n">
+        <v>47</v>
+      </c>
       <c r="F638" s="0" t="n">
         <v>24052</v>
       </c>
@@ -17723,6 +17793,13 @@
       <c r="B639" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C639" s="1" t="n">
+        <f aca="false">I658-F658</f>
+        <v>484</v>
+      </c>
+      <c r="D639" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="F639" s="0" t="n">
         <v>437</v>
       </c>
@@ -17737,6 +17814,13 @@
       <c r="B640" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C640" s="1" t="n">
+        <f aca="false">I659-F659</f>
+        <v>3060</v>
+      </c>
+      <c r="D640" s="0" t="n">
+        <v>46</v>
+      </c>
       <c r="F640" s="0" t="n">
         <v>3023</v>
       </c>
@@ -17751,6 +17835,13 @@
       <c r="B641" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C641" s="1" t="n">
+        <f aca="false">I660-F660</f>
+        <v>4717</v>
+      </c>
+      <c r="D641" s="0" t="n">
+        <v>86</v>
+      </c>
       <c r="F641" s="0" t="n">
         <v>4566</v>
       </c>
@@ -17765,6 +17856,13 @@
       <c r="B642" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C642" s="1" t="n">
+        <f aca="false">I661-F661</f>
+        <v>1310</v>
+      </c>
+      <c r="D642" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F642" s="0" t="n">
         <v>1278</v>
       </c>
@@ -17779,6 +17877,13 @@
       <c r="B643" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C643" s="1" t="n">
+        <f aca="false">I662-F662</f>
+        <v>11740</v>
+      </c>
+      <c r="D643" s="0" t="n">
+        <v>89</v>
+      </c>
       <c r="F643" s="0" t="n">
         <v>10658</v>
       </c>
@@ -17793,6 +17898,13 @@
       <c r="B644" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C644" s="1" t="n">
+        <f aca="false">I663-F663</f>
+        <v>564</v>
+      </c>
+      <c r="D644" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="F644" s="0" t="n">
         <v>553</v>
       </c>
@@ -17807,6 +17919,13 @@
       <c r="B645" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C645" s="1" t="n">
+        <f aca="false">I664-F664</f>
+        <v>5882</v>
+      </c>
+      <c r="D645" s="0" t="n">
+        <v>58</v>
+      </c>
       <c r="F645" s="0" t="n">
         <v>4132</v>
       </c>
@@ -17821,6 +17940,13 @@
       <c r="B646" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C646" s="1" t="n">
+        <f aca="false">I665-F665</f>
+        <v>4178</v>
+      </c>
+      <c r="D646" s="0" t="n">
+        <v>42</v>
+      </c>
       <c r="F646" s="0" t="n">
         <v>3455</v>
       </c>
@@ -17835,6 +17961,13 @@
       <c r="B647" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C647" s="1" t="n">
+        <f aca="false">I666-F666</f>
+        <v>8703</v>
+      </c>
+      <c r="D647" s="0" t="n">
+        <v>39</v>
+      </c>
       <c r="F647" s="0" t="n">
         <v>7742</v>
       </c>
@@ -17842,82 +17975,1469 @@
         <v>15149</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A648" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C648" s="1" t="n">
+        <f aca="false">I667-F667</f>
+        <v>26688</v>
+      </c>
+      <c r="D648" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="F648" s="0" t="n">
+        <v>21619</v>
+      </c>
+      <c r="I648" s="0" t="n">
+        <v>46597</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A649" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" s="1" t="n">
+        <f aca="false">I668-F668</f>
+        <v>5314</v>
+      </c>
+      <c r="D649" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="F649" s="0" t="n">
+        <v>5343</v>
+      </c>
+      <c r="I649" s="0" t="n">
+        <v>12068</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A650" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" s="1" t="n">
+        <f aca="false">I669-F669</f>
+        <v>3335</v>
+      </c>
+      <c r="D650" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F650" s="0" t="n">
+        <v>3326</v>
+      </c>
+      <c r="I650" s="0" t="n">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A651" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C651" s="1" t="n">
+        <f aca="false">I670-F670</f>
+        <v>1476</v>
+      </c>
+      <c r="D651" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F651" s="0" t="n">
+        <v>1365</v>
+      </c>
+      <c r="I651" s="0" t="n">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A652" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C652" s="1" t="n">
+        <f aca="false">I671-F671</f>
+        <v>9397</v>
+      </c>
+      <c r="D652" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F652" s="0" t="n">
+        <v>6154</v>
+      </c>
+      <c r="I652" s="0" t="n">
+        <v>14871</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A653" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" s="1" t="n">
+        <f aca="false">I672-F672</f>
+        <v>969</v>
+      </c>
+      <c r="D653" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F653" s="0" t="n">
+        <v>920</v>
+      </c>
+      <c r="I653" s="0" t="n">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A654" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" s="1" t="n">
+        <f aca="false">I673-F673</f>
+        <v>1678</v>
+      </c>
+      <c r="D654" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F654" s="0" t="n">
+        <v>1678</v>
+      </c>
+      <c r="I654" s="0" t="n">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A655" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C655" s="1" t="n">
+        <f aca="false">I674-F674</f>
+        <v>5508</v>
+      </c>
+      <c r="D655" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="F655" s="0" t="n">
+        <v>4315</v>
+      </c>
+      <c r="I655" s="0" t="n">
+        <v>10394</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A656" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C656" s="1" t="n">
+        <f aca="false">I675-F675</f>
+        <v>11328</v>
+      </c>
+      <c r="D656" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="F656" s="0" t="n">
+        <v>9276</v>
+      </c>
+      <c r="I656" s="0" t="n">
+        <v>20366</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A657" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C657" s="1" t="n">
+        <f aca="false">I676-F676</f>
+        <v>20204</v>
+      </c>
+      <c r="D657" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F657" s="0" t="n">
+        <v>16625</v>
+      </c>
+      <c r="I657" s="0" t="n">
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A658" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C658" s="1" t="n">
+        <f aca="false">I677-F677</f>
+        <v>401</v>
+      </c>
+      <c r="D658" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F658" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="I658" s="0" t="n">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A659" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C659" s="1" t="n">
+        <f aca="false">I678-F678</f>
+        <v>2936</v>
+      </c>
+      <c r="D659" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F659" s="0" t="n">
+        <v>2839</v>
+      </c>
+      <c r="I659" s="0" t="n">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A660" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C660" s="1" t="n">
+        <f aca="false">I679-F679</f>
+        <v>3870</v>
+      </c>
+      <c r="D660" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="F660" s="0" t="n">
+        <v>3830</v>
+      </c>
+      <c r="I660" s="0" t="n">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A661" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C661" s="1" t="n">
+        <f aca="false">I680-F680</f>
+        <v>1201</v>
+      </c>
+      <c r="D661" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F661" s="0" t="n">
+        <v>1192</v>
+      </c>
+      <c r="I661" s="0" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A662" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C662" s="1" t="n">
+        <f aca="false">I681-F681</f>
+        <v>10858</v>
+      </c>
+      <c r="D662" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="F662" s="0" t="n">
+        <v>10175</v>
+      </c>
+      <c r="I662" s="0" t="n">
+        <v>21915</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A663" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C663" s="1" t="n">
+        <f aca="false">I682-F682</f>
+        <v>305</v>
+      </c>
+      <c r="D663" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F663" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="I663" s="0" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A664" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C664" s="1" t="n">
+        <f aca="false">I683-F683</f>
+        <v>5964</v>
+      </c>
+      <c r="D664" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F664" s="0" t="n">
+        <v>5183</v>
+      </c>
+      <c r="I664" s="0" t="n">
+        <v>11065</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A665" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C665" s="1" t="n">
+        <f aca="false">I684-F684</f>
+        <v>1888</v>
+      </c>
+      <c r="D665" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F665" s="0" t="n">
+        <v>1165</v>
+      </c>
+      <c r="I665" s="0" t="n">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A666" s="6" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C666" s="1" t="n">
+        <f aca="false">I685-F685</f>
+        <v>8978</v>
+      </c>
+      <c r="D666" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F666" s="0" t="n">
+        <v>8770</v>
+      </c>
+      <c r="I666" s="0" t="n">
+        <v>17473</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A667" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C667" s="1" t="n">
+        <f aca="false">I686-F686</f>
+        <v>20793</v>
+      </c>
+      <c r="D667" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="F667" s="0" t="n">
+        <v>17017</v>
+      </c>
+      <c r="I667" s="0" t="n">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A668" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C668" s="1" t="n">
+        <f aca="false">I687-F687</f>
+        <v>3226</v>
+      </c>
+      <c r="D668" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="F668" s="0" t="n">
+        <v>3242</v>
+      </c>
+      <c r="I668" s="0" t="n">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A669" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C669" s="1" t="n">
+        <f aca="false">I688-F688</f>
+        <v>3316</v>
+      </c>
+      <c r="D669" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="F669" s="0" t="n">
+        <v>3309</v>
+      </c>
+      <c r="I669" s="0" t="n">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A670" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C670" s="1" t="n">
+        <f aca="false">I689-F689</f>
+        <v>1334</v>
+      </c>
+      <c r="D670" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F670" s="0" t="n">
+        <v>1208</v>
+      </c>
+      <c r="I670" s="0" t="n">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A671" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C671" s="1" t="n">
+        <f aca="false">I690-F690</f>
+        <v>8295</v>
+      </c>
+      <c r="D671" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="F671" s="0" t="n">
+        <v>5591</v>
+      </c>
+      <c r="I671" s="0" t="n">
+        <v>14988</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A672" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" s="1" t="n">
+        <f aca="false">I691-F691</f>
+        <v>826</v>
+      </c>
+      <c r="D672" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F672" s="0" t="n">
+        <v>811</v>
+      </c>
+      <c r="I672" s="0" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A673" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C673" s="1" t="n">
+        <f aca="false">I692-F692</f>
+        <v>1502</v>
+      </c>
+      <c r="D673" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F673" s="0" t="n">
+        <v>1502</v>
+      </c>
+      <c r="I673" s="0" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A674" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C674" s="1" t="n">
+        <f aca="false">I693-F693</f>
+        <v>4293</v>
+      </c>
+      <c r="D674" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F674" s="0" t="n">
+        <v>3543</v>
+      </c>
+      <c r="I674" s="0" t="n">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A675" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C675" s="1" t="n">
+        <f aca="false">I694-F694</f>
+        <v>10181</v>
+      </c>
+      <c r="D675" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="F675" s="0" t="n">
+        <v>7729</v>
+      </c>
+      <c r="I675" s="0" t="n">
+        <v>19057</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A676" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C676" s="1" t="n">
+        <f aca="false">I695-F695</f>
+        <v>13566</v>
+      </c>
+      <c r="D676" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F676" s="0" t="n">
+        <v>12075</v>
+      </c>
+      <c r="I676" s="0" t="n">
+        <v>32279</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A677" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C677" s="1" t="n">
+        <f aca="false">I696-F696</f>
+        <v>234</v>
+      </c>
+      <c r="D677" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F677" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="I677" s="0" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A678" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C678" s="1" t="n">
+        <f aca="false">I697-F697</f>
+        <v>1627</v>
+      </c>
+      <c r="D678" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F678" s="0" t="n">
+        <v>1590</v>
+      </c>
+      <c r="I678" s="0" t="n">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A679" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C679" s="1" t="n">
+        <f aca="false">I698-F698</f>
+        <v>3952</v>
+      </c>
+      <c r="D679" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F679" s="0" t="n">
+        <v>3915</v>
+      </c>
+      <c r="I679" s="0" t="n">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A680" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C680" s="1" t="n">
+        <f aca="false">I699-F699</f>
+        <v>892</v>
+      </c>
+      <c r="D680" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F680" s="0" t="n">
+        <v>872</v>
+      </c>
+      <c r="I680" s="0" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A681" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C681" s="1" t="n">
+        <f aca="false">I700-F700</f>
+        <v>9602</v>
+      </c>
+      <c r="D681" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F681" s="0" t="n">
+        <v>8952</v>
+      </c>
+      <c r="I681" s="0" t="n">
+        <v>19810</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A682" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C682" s="1" t="n">
+        <f aca="false">I701-F701</f>
+        <v>222</v>
+      </c>
+      <c r="D682" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F682" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="I682" s="0" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A683" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C683" s="1" t="n">
+        <f aca="false">I702-F702</f>
+        <v>3480</v>
+      </c>
+      <c r="D683" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F683" s="0" t="n">
+        <v>2994</v>
+      </c>
+      <c r="I683" s="0" t="n">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A684" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C684" s="1" t="n">
+        <f aca="false">I703-F703</f>
+        <v>1198</v>
+      </c>
+      <c r="D684" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F684" s="0" t="n">
+        <v>1190</v>
+      </c>
+      <c r="I684" s="0" t="n">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A685" s="6" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C685" s="1" t="n">
+        <f aca="false">I704-F704</f>
+        <v>6961</v>
+      </c>
+      <c r="D685" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F685" s="0" t="n">
+        <v>6888</v>
+      </c>
+      <c r="I685" s="0" t="n">
+        <v>15866</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A686" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C686" s="1" t="n">
+        <f aca="false">I705-F705</f>
+        <v>13409</v>
+      </c>
+      <c r="D686" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="F686" s="0" t="n">
+        <v>11576</v>
+      </c>
+      <c r="I686" s="0" t="n">
+        <v>32369</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A687" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C687" s="1" t="n">
+        <f aca="false">I706-F706</f>
+        <v>2105</v>
+      </c>
+      <c r="D687" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F687" s="0" t="n">
+        <v>2088</v>
+      </c>
+      <c r="I687" s="0" t="n">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A688" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C688" s="1" t="n">
+        <f aca="false">I707-F707</f>
+        <v>2135</v>
+      </c>
+      <c r="D688" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="F688" s="0" t="n">
+        <v>2132</v>
+      </c>
+      <c r="I688" s="0" t="n">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A689" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C689" s="1" t="n">
+        <f aca="false">I708-F708</f>
+        <v>1125</v>
+      </c>
+      <c r="D689" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F689" s="0" t="n">
+        <v>994</v>
+      </c>
+      <c r="I689" s="0" t="n">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A690" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C690" s="1" t="n">
+        <f aca="false">I709-F709</f>
+        <v>7295</v>
+      </c>
+      <c r="D690" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="F690" s="0" t="n">
+        <v>5504</v>
+      </c>
+      <c r="I690" s="0" t="n">
+        <v>13799</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A691" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C691" s="1" t="n">
+        <f aca="false">I710-F710</f>
+        <v>857</v>
+      </c>
+      <c r="D691" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F691" s="0" t="n">
+        <v>845</v>
+      </c>
+      <c r="I691" s="0" t="n">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A692" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C692" s="1" t="n">
+        <f aca="false">I711-F711</f>
+        <v>944</v>
+      </c>
+      <c r="D692" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F692" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="I692" s="0" t="n">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A693" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C693" s="1" t="n">
+        <f aca="false">I712-F712</f>
+        <v>3122</v>
+      </c>
+      <c r="D693" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F693" s="0" t="n">
+        <v>2479</v>
+      </c>
+      <c r="I693" s="0" t="n">
+        <v>6772</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A694" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C694" s="1" t="n">
+        <f aca="false">I713-F713</f>
+        <v>5048</v>
+      </c>
+      <c r="D694" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="F694" s="0" t="n">
+        <v>3226</v>
+      </c>
+      <c r="I694" s="0" t="n">
+        <v>13407</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A695" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C695" s="1" t="n">
+        <f aca="false">I714-F714</f>
+        <v>9069</v>
+      </c>
+      <c r="D695" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F695" s="0" t="n">
+        <v>8162</v>
+      </c>
+      <c r="I695" s="0" t="n">
+        <v>21728</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A696" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C696" s="1" t="n">
+        <f aca="false">I715-F715</f>
+        <v>140</v>
+      </c>
+      <c r="D696" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F696" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="I696" s="0" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A697" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C697" s="1" t="n">
+        <f aca="false">I716-F716</f>
+        <v>1279</v>
+      </c>
+      <c r="D697" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F697" s="0" t="n">
+        <v>1256</v>
+      </c>
+      <c r="I697" s="0" t="n">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A698" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C698" s="1" t="n">
+        <f aca="false">I717-F717</f>
+        <v>3310</v>
+      </c>
+      <c r="D698" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F698" s="0" t="n">
+        <v>3298</v>
+      </c>
+      <c r="I698" s="0" t="n">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A699" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C699" s="1" t="n">
+        <f aca="false">I718-F718</f>
+        <v>644</v>
+      </c>
+      <c r="D699" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F699" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="I699" s="0" t="n">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A700" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C700" s="1" t="n">
+        <f aca="false">I719-F719</f>
+        <v>7742</v>
+      </c>
+      <c r="D700" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F700" s="0" t="n">
+        <v>7194</v>
+      </c>
+      <c r="I700" s="0" t="n">
+        <v>16796</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A701" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C701" s="1" t="n">
+        <f aca="false">I720-F720</f>
+        <v>186</v>
+      </c>
+      <c r="D701" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F701" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="I701" s="0" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A702" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C702" s="1" t="n">
+        <f aca="false">I721-F721</f>
+        <v>1864</v>
+      </c>
+      <c r="D702" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F702" s="0" t="n">
+        <v>1638</v>
+      </c>
+      <c r="I702" s="0" t="n">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A703" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C703" s="1" t="n">
+        <f aca="false">I722-F722</f>
+        <v>921</v>
+      </c>
+      <c r="D703" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F703" s="0" t="n">
+        <v>913</v>
+      </c>
+      <c r="I703" s="0" t="n">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A704" s="6" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C704" s="1" t="n">
+        <f aca="false">I723-F723</f>
+        <v>4472</v>
+      </c>
+      <c r="D704" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F704" s="0" t="n">
+        <v>4361</v>
+      </c>
+      <c r="I704" s="0" t="n">
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A705" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F705" s="0" t="n">
+        <v>7574</v>
+      </c>
+      <c r="I705" s="0" t="n">
+        <v>20983</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A706" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F706" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I706" s="0" t="n">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A707" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F707" s="0" t="n">
+        <v>1483</v>
+      </c>
+      <c r="I707" s="0" t="n">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A708" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F708" s="0" t="n">
+        <v>1190</v>
+      </c>
+      <c r="I708" s="0" t="n">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A709" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F709" s="0" t="n">
+        <v>4623</v>
+      </c>
+      <c r="I709" s="0" t="n">
+        <v>11918</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A710" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F710" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="I710" s="0" t="n">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A711" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F711" s="0" t="n">
+        <v>824</v>
+      </c>
+      <c r="I711" s="0" t="n">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A712" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F712" s="0" t="n">
+        <v>2195</v>
+      </c>
+      <c r="I712" s="0" t="n">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A713" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F713" s="0" t="n">
+        <v>2771</v>
+      </c>
+      <c r="I713" s="0" t="n">
+        <v>7819</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A714" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F714" s="0" t="n">
+        <v>7328</v>
+      </c>
+      <c r="I714" s="0" t="n">
+        <v>16397</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A715" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F715" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="I715" s="0" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A716" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F716" s="0" t="n">
+        <v>989</v>
+      </c>
+      <c r="I716" s="0" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A717" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F717" s="0" t="n">
+        <v>2443</v>
+      </c>
+      <c r="I717" s="0" t="n">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A718" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F718" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="I718" s="0" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A719" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F719" s="0" t="n">
+        <v>7142</v>
+      </c>
+      <c r="I719" s="0" t="n">
+        <v>14884</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A720" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F720" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="I720" s="0" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A721" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F721" s="0" t="n">
+        <v>1185</v>
+      </c>
+      <c r="I721" s="0" t="n">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A722" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F722" s="0" t="n">
+        <v>695</v>
+      </c>
+      <c r="I722" s="0" t="n">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A723" s="6" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F723" s="0" t="n">
+        <v>3480</v>
+      </c>
+      <c r="I723" s="0" t="n">
+        <v>7952</v>
+      </c>
+    </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -317,17 +317,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A682" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D703" activeCellId="0" sqref="D703"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A848" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C800" activeCellId="0" sqref="C800:D875"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -19179,6 +19179,13 @@
       <c r="B705" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C705" s="1" t="n">
+        <f aca="false">I724-F724</f>
+        <v>8736</v>
+      </c>
+      <c r="D705" s="0" t="n">
+        <v>128</v>
+      </c>
       <c r="F705" s="0" t="n">
         <v>7574</v>
       </c>
@@ -19193,6 +19200,13 @@
       <c r="B706" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C706" s="1" t="n">
+        <f aca="false">I725-F725</f>
+        <v>1994</v>
+      </c>
+      <c r="D706" s="0" t="n">
+        <v>76</v>
+      </c>
       <c r="F706" s="0" t="n">
         <v>2022</v>
       </c>
@@ -19207,6 +19221,13 @@
       <c r="B707" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C707" s="1" t="n">
+        <f aca="false">I726-F726</f>
+        <v>1488</v>
+      </c>
+      <c r="D707" s="0" t="n">
+        <v>98</v>
+      </c>
       <c r="F707" s="0" t="n">
         <v>1483</v>
       </c>
@@ -19221,6 +19242,13 @@
       <c r="B708" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C708" s="1" t="n">
+        <f aca="false">I727-F727</f>
+        <v>1332</v>
+      </c>
+      <c r="D708" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F708" s="0" t="n">
         <v>1190</v>
       </c>
@@ -19235,6 +19263,13 @@
       <c r="B709" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C709" s="1" t="n">
+        <f aca="false">I728-F728</f>
+        <v>6042</v>
+      </c>
+      <c r="D709" s="0" t="n">
+        <v>71</v>
+      </c>
       <c r="F709" s="0" t="n">
         <v>4623</v>
       </c>
@@ -19249,6 +19284,13 @@
       <c r="B710" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C710" s="1" t="n">
+        <f aca="false">I729-F729</f>
+        <v>971</v>
+      </c>
+      <c r="D710" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="F710" s="0" t="n">
         <v>960</v>
       </c>
@@ -19263,6 +19305,13 @@
       <c r="B711" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C711" s="1" t="n">
+        <f aca="false">I730-F730</f>
+        <v>824</v>
+      </c>
+      <c r="D711" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="F711" s="0" t="n">
         <v>824</v>
       </c>
@@ -19277,6 +19326,13 @@
       <c r="B712" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C712" s="1" t="n">
+        <f aca="false">I731-F731</f>
+        <v>2674</v>
+      </c>
+      <c r="D712" s="0" t="n">
+        <v>27</v>
+      </c>
       <c r="F712" s="0" t="n">
         <v>2195</v>
       </c>
@@ -19291,6 +19347,13 @@
       <c r="B713" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C713" s="1" t="n">
+        <f aca="false">I732-F732</f>
+        <v>3244</v>
+      </c>
+      <c r="D713" s="0" t="n">
+        <v>109</v>
+      </c>
       <c r="F713" s="0" t="n">
         <v>2771</v>
       </c>
@@ -19305,6 +19368,13 @@
       <c r="B714" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C714" s="1" t="n">
+        <f aca="false">I733-F733</f>
+        <v>8131</v>
+      </c>
+      <c r="D714" s="0" t="n">
+        <v>48</v>
+      </c>
       <c r="F714" s="0" t="n">
         <v>7328</v>
       </c>
@@ -19319,6 +19389,13 @@
       <c r="B715" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C715" s="1" t="n">
+        <f aca="false">I734-F734</f>
+        <v>73</v>
+      </c>
+      <c r="D715" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F715" s="0" t="n">
         <v>72</v>
       </c>
@@ -19333,6 +19410,13 @@
       <c r="B716" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C716" s="1" t="n">
+        <f aca="false">I735-F735</f>
+        <v>1009</v>
+      </c>
+      <c r="D716" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="F716" s="0" t="n">
         <v>989</v>
       </c>
@@ -19347,6 +19431,13 @@
       <c r="B717" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C717" s="1" t="n">
+        <f aca="false">I736-F736</f>
+        <v>2460</v>
+      </c>
+      <c r="D717" s="0" t="n">
+        <v>42</v>
+      </c>
       <c r="F717" s="0" t="n">
         <v>2443</v>
       </c>
@@ -19361,6 +19452,13 @@
       <c r="B718" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C718" s="1" t="n">
+        <f aca="false">I737-F737</f>
+        <v>504</v>
+      </c>
+      <c r="D718" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="F718" s="0" t="n">
         <v>501</v>
       </c>
@@ -19375,6 +19473,13 @@
       <c r="B719" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C719" s="1" t="n">
+        <f aca="false">I738-F738</f>
+        <v>7680</v>
+      </c>
+      <c r="D719" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="F719" s="0" t="n">
         <v>7142</v>
       </c>
@@ -19389,6 +19494,13 @@
       <c r="B720" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C720" s="1" t="n">
+        <f aca="false">I739-F739</f>
+        <v>138</v>
+      </c>
+      <c r="D720" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F720" s="0" t="n">
         <v>138</v>
       </c>
@@ -19403,6 +19515,13 @@
       <c r="B721" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C721" s="1" t="n">
+        <f aca="false">I740-F740</f>
+        <v>1368</v>
+      </c>
+      <c r="D721" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="F721" s="0" t="n">
         <v>1185</v>
       </c>
@@ -19417,6 +19536,13 @@
       <c r="B722" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C722" s="1" t="n">
+        <f aca="false">I741-F741</f>
+        <v>703</v>
+      </c>
+      <c r="D722" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="F722" s="0" t="n">
         <v>695</v>
       </c>
@@ -19431,6 +19557,13 @@
       <c r="B723" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C723" s="1" t="n">
+        <f aca="false">I742-F742</f>
+        <v>3516</v>
+      </c>
+      <c r="D723" s="0" t="n">
+        <v>44</v>
+      </c>
       <c r="F723" s="0" t="n">
         <v>3480</v>
       </c>
@@ -19438,177 +19571,3464 @@
         <v>7952</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A724" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C724" s="1" t="n">
+        <f aca="false">I743-F743</f>
+        <v>5337</v>
+      </c>
+      <c r="D724" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F724" s="0" t="n">
+        <v>4307</v>
+      </c>
+      <c r="I724" s="0" t="n">
+        <v>13043</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A725" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C725" s="1" t="n">
+        <f aca="false">I744-F744</f>
+        <v>1189</v>
+      </c>
+      <c r="D725" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F725" s="0" t="n">
+        <v>1181</v>
+      </c>
+      <c r="I725" s="0" t="n">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A726" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C726" s="1" t="n">
+        <f aca="false">I745-F745</f>
+        <v>1119</v>
+      </c>
+      <c r="D726" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="F726" s="0" t="n">
+        <v>1074</v>
+      </c>
+      <c r="I726" s="0" t="n">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A727" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C727" s="1" t="n">
+        <f aca="false">I746-F746</f>
+        <v>1596</v>
+      </c>
+      <c r="D727" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F727" s="0" t="n">
+        <v>1338</v>
+      </c>
+      <c r="I727" s="0" t="n">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A728" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C728" s="1" t="n">
+        <f aca="false">I747-F747</f>
+        <v>5364</v>
+      </c>
+      <c r="D728" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="F728" s="0" t="n">
+        <v>3923</v>
+      </c>
+      <c r="I728" s="0" t="n">
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A729" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C729" s="1" t="n">
+        <f aca="false">I748-F748</f>
+        <v>1138</v>
+      </c>
+      <c r="D729" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F729" s="0" t="n">
+        <v>1116</v>
+      </c>
+      <c r="I729" s="0" t="n">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A730" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C730" s="1" t="n">
+        <f aca="false">I749-F749</f>
+        <v>670</v>
+      </c>
+      <c r="D730" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F730" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="I730" s="0" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A731" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C731" s="1" t="n">
+        <f aca="false">I750-F750</f>
+        <v>2394</v>
+      </c>
+      <c r="D731" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="F731" s="0" t="n">
+        <v>1695</v>
+      </c>
+      <c r="I731" s="0" t="n">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A732" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C732" s="1" t="n">
+        <f aca="false">I751-F751</f>
+        <v>2034</v>
+      </c>
+      <c r="D732" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="F732" s="0" t="n">
+        <v>1913</v>
+      </c>
+      <c r="I732" s="0" t="n">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A733" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C733" s="1" t="n">
+        <f aca="false">I752-F752</f>
+        <v>7003</v>
+      </c>
+      <c r="D733" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F733" s="0" t="n">
+        <v>6179</v>
+      </c>
+      <c r="I733" s="0" t="n">
+        <v>14310</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A734" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C734" s="1" t="n">
+        <f aca="false">I753-F753</f>
+        <v>49</v>
+      </c>
+      <c r="D734" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F734" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="I734" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A735" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C735" s="1" t="n">
+        <f aca="false">I754-F754</f>
+        <v>783</v>
+      </c>
+      <c r="D735" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F735" s="0" t="n">
+        <v>656</v>
+      </c>
+      <c r="I735" s="0" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A736" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C736" s="1" t="n">
+        <f aca="false">I755-F755</f>
+        <v>2127</v>
+      </c>
+      <c r="D736" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F736" s="0" t="n">
+        <v>2072</v>
+      </c>
+      <c r="I736" s="0" t="n">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A737" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C737" s="1" t="n">
+        <f aca="false">I756-F756</f>
+        <v>295</v>
+      </c>
+      <c r="D737" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F737" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="I737" s="0" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A738" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C738" s="1" t="n">
+        <f aca="false">I757-F757</f>
+        <v>6136</v>
+      </c>
+      <c r="D738" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F738" s="0" t="n">
+        <v>5371</v>
+      </c>
+      <c r="I738" s="0" t="n">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A739" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C739" s="1" t="n">
+        <f aca="false">I758-F758</f>
+        <v>78</v>
+      </c>
+      <c r="D739" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F739" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="I739" s="0" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A740" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C740" s="1" t="n">
+        <f aca="false">I759-F759</f>
+        <v>954</v>
+      </c>
+      <c r="D740" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F740" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="I740" s="0" t="n">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A741" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C741" s="1" t="n">
+        <f aca="false">I760-F760</f>
+        <v>593</v>
+      </c>
+      <c r="D741" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F741" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="I741" s="0" t="n">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A742" s="6" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C742" s="1" t="n">
+        <f aca="false">I761-F761</f>
+        <v>2662</v>
+      </c>
+      <c r="D742" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F742" s="0" t="n">
+        <v>2621</v>
+      </c>
+      <c r="I742" s="0" t="n">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A743" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C743" s="1" t="n">
+        <f aca="false">I762-F762</f>
+        <v>7264</v>
+      </c>
+      <c r="D743" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F743" s="0" t="n">
+        <v>6247</v>
+      </c>
+      <c r="I743" s="0" t="n">
+        <v>11584</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A744" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C744" s="1" t="n">
+        <f aca="false">I763-F763</f>
+        <v>1630</v>
+      </c>
+      <c r="D744" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F744" s="0" t="n">
+        <v>1626</v>
+      </c>
+      <c r="I744" s="0" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A745" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C745" s="1" t="n">
+        <f aca="false">I764-F764</f>
+        <v>884</v>
+      </c>
+      <c r="D745" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F745" s="0" t="n">
+        <v>878</v>
+      </c>
+      <c r="I745" s="0" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A746" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C746" s="1" t="n">
+        <f aca="false">I765-F765</f>
+        <v>2707</v>
+      </c>
+      <c r="D746" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F746" s="0" t="n">
+        <v>2110</v>
+      </c>
+      <c r="I746" s="0" t="n">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A747" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C747" s="1" t="n">
+        <f aca="false">I766-F766</f>
+        <v>10447</v>
+      </c>
+      <c r="D747" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="F747" s="0" t="n">
+        <v>7384</v>
+      </c>
+      <c r="I747" s="0" t="n">
+        <v>12748</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A748" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C748" s="1" t="n">
+        <f aca="false">I767-F767</f>
+        <v>1562</v>
+      </c>
+      <c r="D748" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F748" s="0" t="n">
+        <v>1551</v>
+      </c>
+      <c r="I748" s="0" t="n">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A749" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C749" s="1" t="n">
+        <f aca="false">I768-F768</f>
+        <v>548</v>
+      </c>
+      <c r="D749" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F749" s="0" t="n">
+        <v>547</v>
+      </c>
+      <c r="I749" s="0" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A750" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C750" s="1" t="n">
+        <f aca="false">I769-F769</f>
+        <v>3473</v>
+      </c>
+      <c r="D750" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F750" s="0" t="n">
+        <v>2709</v>
+      </c>
+      <c r="I750" s="0" t="n">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A751" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C751" s="1" t="n">
+        <f aca="false">I770-F770</f>
+        <v>2350</v>
+      </c>
+      <c r="D751" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F751" s="0" t="n">
+        <v>2305</v>
+      </c>
+      <c r="I751" s="0" t="n">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A752" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C752" s="1" t="n">
+        <f aca="false">I771-F771</f>
+        <v>11338</v>
+      </c>
+      <c r="D752" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F752" s="0" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I752" s="0" t="n">
+        <v>17009</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A753" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C753" s="1" t="n">
+        <f aca="false">I772-F772</f>
+        <v>64</v>
+      </c>
+      <c r="D753" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F753" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I753" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A754" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C754" s="1" t="n">
+        <f aca="false">I773-F773</f>
+        <v>1636</v>
+      </c>
+      <c r="D754" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F754" s="0" t="n">
+        <v>1560</v>
+      </c>
+      <c r="I754" s="0" t="n">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A755" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C755" s="1" t="n">
+        <f aca="false">I774-F774</f>
+        <v>2646</v>
+      </c>
+      <c r="D755" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F755" s="0" t="n">
+        <v>2325</v>
+      </c>
+      <c r="I755" s="0" t="n">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A756" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C756" s="1" t="n">
+        <f aca="false">I775-F775</f>
+        <v>353</v>
+      </c>
+      <c r="D756" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F756" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="I756" s="0" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A757" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C757" s="1" t="n">
+        <f aca="false">I776-F776</f>
+        <v>12552</v>
+      </c>
+      <c r="D757" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F757" s="0" t="n">
+        <v>11331</v>
+      </c>
+      <c r="I757" s="0" t="n">
+        <v>17467</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A758" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C758" s="1" t="n">
+        <f aca="false">I777-F777</f>
+        <v>126</v>
+      </c>
+      <c r="D758" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F758" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="I758" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A759" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C759" s="1" t="n">
+        <f aca="false">I778-F778</f>
+        <v>1324</v>
+      </c>
+      <c r="D759" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F759" s="0" t="n">
+        <v>1117</v>
+      </c>
+      <c r="I759" s="0" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A760" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C760" s="1" t="n">
+        <f aca="false">I779-F779</f>
+        <v>712</v>
+      </c>
+      <c r="D760" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F760" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="I760" s="0" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A761" s="6" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C761" s="1" t="n">
+        <f aca="false">I780-F780</f>
+        <v>3024</v>
+      </c>
+      <c r="D761" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F761" s="0" t="n">
+        <v>3010</v>
+      </c>
+      <c r="I761" s="0" t="n">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A762" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C762" s="1" t="n">
+        <f aca="false">I781-F781</f>
+        <v>6580</v>
+      </c>
+      <c r="D762" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F762" s="0" t="n">
+        <v>5351</v>
+      </c>
+      <c r="I762" s="0" t="n">
+        <v>12615</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A763" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C763" s="1" t="n">
+        <f aca="false">I782-F782</f>
+        <v>1215</v>
+      </c>
+      <c r="D763" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F763" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I763" s="0" t="n">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A764" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C764" s="1" t="n">
+        <f aca="false">I783-F783</f>
+        <v>596</v>
+      </c>
+      <c r="D764" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F764" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="I764" s="0" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A765" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C765" s="1" t="n">
+        <f aca="false">I784-F784</f>
+        <v>3467</v>
+      </c>
+      <c r="D765" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F765" s="0" t="n">
+        <v>2746</v>
+      </c>
+      <c r="I765" s="0" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A766" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C766" s="1" t="n">
+        <f aca="false">I785-F785</f>
+        <v>12287</v>
+      </c>
+      <c r="D766" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="F766" s="0" t="n">
+        <v>8379</v>
+      </c>
+      <c r="I766" s="0" t="n">
+        <v>18826</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A767" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C767" s="1" t="n">
+        <f aca="false">I786-F786</f>
+        <v>1457</v>
+      </c>
+      <c r="D767" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F767" s="0" t="n">
+        <v>1247</v>
+      </c>
+      <c r="I767" s="0" t="n">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A768" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C768" s="1" t="n">
+        <f aca="false">I787-F787</f>
+        <v>425</v>
+      </c>
+      <c r="D768" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F768" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="I768" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A769" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C769" s="1" t="n">
+        <f aca="false">I788-F788</f>
+        <v>3855</v>
+      </c>
+      <c r="D769" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F769" s="0" t="n">
+        <v>3043</v>
+      </c>
+      <c r="I769" s="0" t="n">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A770" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C770" s="1" t="n">
+        <f aca="false">I789-F789</f>
+        <v>1748</v>
+      </c>
+      <c r="D770" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F770" s="0" t="n">
+        <v>1695</v>
+      </c>
+      <c r="I770" s="0" t="n">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A771" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C771" s="1" t="n">
+        <f aca="false">I790-F790</f>
+        <v>13931</v>
+      </c>
+      <c r="D771" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F771" s="0" t="n">
+        <v>12625</v>
+      </c>
+      <c r="I771" s="0" t="n">
+        <v>23963</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A772" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C772" s="1" t="n">
+        <f aca="false">I791-F791</f>
+        <v>31</v>
+      </c>
+      <c r="D772" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F772" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I772" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A773" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C773" s="1" t="n">
+        <f aca="false">I792-F792</f>
+        <v>2456</v>
+      </c>
+      <c r="D773" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F773" s="0" t="n">
+        <v>2333</v>
+      </c>
+      <c r="I773" s="0" t="n">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A774" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C774" s="1" t="n">
+        <f aca="false">I793-F793</f>
+        <v>2500</v>
+      </c>
+      <c r="D774" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F774" s="0" t="n">
+        <v>2464</v>
+      </c>
+      <c r="I774" s="0" t="n">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A775" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C775" s="1" t="n">
+        <f aca="false">I794-F794</f>
+        <v>429</v>
+      </c>
+      <c r="D775" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F775" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="I775" s="0" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A776" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C776" s="1" t="n">
+        <f aca="false">I795-F795</f>
+        <v>13962</v>
+      </c>
+      <c r="D776" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F776" s="0" t="n">
+        <v>12550</v>
+      </c>
+      <c r="I776" s="0" t="n">
+        <v>25102</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A777" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C777" s="1" t="n">
+        <f aca="false">I796-F796</f>
+        <v>98</v>
+      </c>
+      <c r="D777" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F777" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="I777" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A778" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C778" s="1" t="n">
+        <f aca="false">I797-F797</f>
+        <v>1356</v>
+      </c>
+      <c r="D778" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F778" s="0" t="n">
+        <v>859</v>
+      </c>
+      <c r="I778" s="0" t="n">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A779" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C779" s="1" t="n">
+        <f aca="false">I798-F798</f>
+        <v>578</v>
+      </c>
+      <c r="D779" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F779" s="0" t="n">
+        <v>568</v>
+      </c>
+      <c r="I779" s="0" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A780" s="6" t="n">
+        <v>44189</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C780" s="1" t="n">
+        <f aca="false">I799-F799</f>
+        <v>2437</v>
+      </c>
+      <c r="D780" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F780" s="0" t="n">
+        <v>2349</v>
+      </c>
+      <c r="I780" s="0" t="n">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A781" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C781" s="1" t="n">
+        <f aca="false">I800-F800</f>
+        <v>6711</v>
+      </c>
+      <c r="D781" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F781" s="0" t="n">
+        <v>5306</v>
+      </c>
+      <c r="I781" s="0" t="n">
+        <v>11886</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A782" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C782" s="1" t="n">
+        <f aca="false">I801-F801</f>
+        <v>1905</v>
+      </c>
+      <c r="D782" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F782" s="0" t="n">
+        <v>1893</v>
+      </c>
+      <c r="I782" s="0" t="n">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A783" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C783" s="1" t="n">
+        <f aca="false">I802-F802</f>
+        <v>598</v>
+      </c>
+      <c r="D783" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F783" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="I783" s="0" t="n">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A784" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C784" s="1" t="n">
+        <f aca="false">I803-F803</f>
+        <v>3133</v>
+      </c>
+      <c r="D784" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F784" s="0" t="n">
+        <v>2635</v>
+      </c>
+      <c r="I784" s="0" t="n">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A785" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C785" s="1" t="n">
+        <f aca="false">I804-F804</f>
+        <v>10782</v>
+      </c>
+      <c r="D785" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F785" s="0" t="n">
+        <v>7264</v>
+      </c>
+      <c r="I785" s="0" t="n">
+        <v>19551</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A786" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C786" s="1" t="n">
+        <f aca="false">I805-F805</f>
+        <v>1380</v>
+      </c>
+      <c r="D786" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F786" s="0" t="n">
+        <v>1117</v>
+      </c>
+      <c r="I786" s="0" t="n">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A787" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C787" s="1" t="n">
+        <f aca="false">I806-F806</f>
+        <v>545</v>
+      </c>
+      <c r="D787" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F787" s="0" t="n">
+        <v>545</v>
+      </c>
+      <c r="I787" s="0" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A788" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C788" s="1" t="n">
+        <f aca="false">I807-F807</f>
+        <v>4210</v>
+      </c>
+      <c r="D788" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F788" s="0" t="n">
+        <v>2842</v>
+      </c>
+      <c r="I788" s="0" t="n">
+        <v>6697</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A789" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C789" s="1" t="n">
+        <f aca="false">I808-F808</f>
+        <v>2056</v>
+      </c>
+      <c r="D789" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F789" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I789" s="0" t="n">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A790" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C790" s="1" t="n">
+        <f aca="false">I809-F809</f>
+        <v>17303</v>
+      </c>
+      <c r="D790" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F790" s="0" t="n">
+        <v>14396</v>
+      </c>
+      <c r="I790" s="0" t="n">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A791" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C791" s="1" t="n">
+        <f aca="false">I810-F810</f>
+        <v>81</v>
+      </c>
+      <c r="D791" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F791" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="I791" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A792" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C792" s="1" t="n">
+        <f aca="false">I811-F811</f>
+        <v>3167</v>
+      </c>
+      <c r="D792" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F792" s="0" t="n">
+        <v>3006</v>
+      </c>
+      <c r="I792" s="0" t="n">
+        <v>5462</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A793" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C793" s="1" t="n">
+        <f aca="false">I812-F812</f>
+        <v>2666</v>
+      </c>
+      <c r="D793" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="F793" s="0" t="n">
+        <v>2636</v>
+      </c>
+      <c r="I793" s="0" t="n">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A794" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C794" s="1" t="n">
+        <f aca="false">I813-F813</f>
+        <v>517</v>
+      </c>
+      <c r="D794" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F794" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="I794" s="0" t="n">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A795" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C795" s="1" t="n">
+        <f aca="false">I814-F814</f>
+        <v>14816</v>
+      </c>
+      <c r="D795" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F795" s="0" t="n">
+        <v>12694</v>
+      </c>
+      <c r="I795" s="0" t="n">
+        <v>26656</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A796" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C796" s="1" t="n">
+        <f aca="false">I815-F815</f>
+        <v>102</v>
+      </c>
+      <c r="D796" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F796" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="I796" s="0" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A797" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C797" s="1" t="n">
+        <f aca="false">I816-F816</f>
+        <v>2019</v>
+      </c>
+      <c r="D797" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F797" s="0" t="n">
+        <v>1591</v>
+      </c>
+      <c r="I797" s="0" t="n">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A798" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C798" s="1" t="n">
+        <f aca="false">I817-F817</f>
+        <v>715</v>
+      </c>
+      <c r="D798" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F798" s="0" t="n">
+        <v>707</v>
+      </c>
+      <c r="I798" s="0" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A799" s="6" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C799" s="1" t="n">
+        <f aca="false">I818-F818</f>
+        <v>2243</v>
+      </c>
+      <c r="D799" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F799" s="0" t="n">
+        <v>2152</v>
+      </c>
+      <c r="I799" s="0" t="n">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A800" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C800" s="1" t="n">
+        <f aca="false">I819-F819</f>
+        <v>11629</v>
+      </c>
+      <c r="D800" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F800" s="0" t="n">
+        <v>8987</v>
+      </c>
+      <c r="I800" s="0" t="n">
+        <v>15698</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A801" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C801" s="1" t="n">
+        <f aca="false">I820-F820</f>
+        <v>2281</v>
+      </c>
+      <c r="D801" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="F801" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="I801" s="0" t="n">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A802" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C802" s="1" t="n">
+        <f aca="false">I821-F821</f>
+        <v>863</v>
+      </c>
+      <c r="D802" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F802" s="0" t="n">
+        <v>860</v>
+      </c>
+      <c r="I802" s="0" t="n">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A803" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C803" s="1" t="n">
+        <f aca="false">I822-F822</f>
+        <v>3241</v>
+      </c>
+      <c r="D803" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F803" s="0" t="n">
+        <v>2951</v>
+      </c>
+      <c r="I803" s="0" t="n">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A804" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C804" s="1" t="n">
+        <f aca="false">I823-F823</f>
+        <v>17617</v>
+      </c>
+      <c r="D804" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="F804" s="0" t="n">
+        <v>6418</v>
+      </c>
+      <c r="I804" s="0" t="n">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A805" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C805" s="1" t="n">
+        <f aca="false">I824-F824</f>
+        <v>1529</v>
+      </c>
+      <c r="D805" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F805" s="0" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I805" s="0" t="n">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A806" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C806" s="1" t="n">
+        <f aca="false">I825-F825</f>
+        <v>825</v>
+      </c>
+      <c r="D806" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F806" s="0" t="n">
+        <v>817</v>
+      </c>
+      <c r="I806" s="0" t="n">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A807" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C807" s="1" t="n">
+        <f aca="false">I826-F826</f>
+        <v>6376</v>
+      </c>
+      <c r="D807" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F807" s="0" t="n">
+        <v>3873</v>
+      </c>
+      <c r="I807" s="0" t="n">
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A808" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C808" s="1" t="n">
+        <f aca="false">I827-F827</f>
+        <v>4273</v>
+      </c>
+      <c r="D808" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F808" s="0" t="n">
+        <v>4715</v>
+      </c>
+      <c r="I808" s="0" t="n">
+        <v>6771</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A809" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C809" s="1" t="n">
+        <f aca="false">I828-F828</f>
+        <v>16080</v>
+      </c>
+      <c r="D809" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F809" s="0" t="n">
+        <v>14278</v>
+      </c>
+      <c r="I809" s="0" t="n">
+        <v>31581</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A810" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C810" s="1" t="n">
+        <f aca="false">I829-F829</f>
+        <v>132</v>
+      </c>
+      <c r="D810" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F810" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="I810" s="0" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A811" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C811" s="1" t="n">
+        <f aca="false">I830-F830</f>
+        <v>4620</v>
+      </c>
+      <c r="D811" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="F811" s="0" t="n">
+        <v>4484</v>
+      </c>
+      <c r="I811" s="0" t="n">
+        <v>7651</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A812" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C812" s="1" t="n">
+        <f aca="false">I831-F831</f>
+        <v>3614</v>
+      </c>
+      <c r="D812" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F812" s="0" t="n">
+        <v>3573</v>
+      </c>
+      <c r="I812" s="0" t="n">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A813" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C813" s="1" t="n">
+        <f aca="false">I832-F832</f>
+        <v>714</v>
+      </c>
+      <c r="D813" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F813" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="I813" s="0" t="n">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A814" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C814" s="1" t="n">
+        <f aca="false">I833-F833</f>
+        <v>17569</v>
+      </c>
+      <c r="D814" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F814" s="0" t="n">
+        <v>15315</v>
+      </c>
+      <c r="I814" s="0" t="n">
+        <v>30131</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A815" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C815" s="1" t="n">
+        <f aca="false">I834-F834</f>
+        <v>184</v>
+      </c>
+      <c r="D815" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F815" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="I815" s="0" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A816" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C816" s="1" t="n">
+        <f aca="false">I835-F835</f>
+        <v>4280</v>
+      </c>
+      <c r="D816" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F816" s="0" t="n">
+        <v>2191</v>
+      </c>
+      <c r="I816" s="0" t="n">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A817" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C817" s="1" t="n">
+        <f aca="false">I836-F836</f>
+        <v>874</v>
+      </c>
+      <c r="D817" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F817" s="0" t="n">
+        <v>863</v>
+      </c>
+      <c r="I817" s="0" t="n">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A818" s="6" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C818" s="1" t="n">
+        <f aca="false">I837-F837</f>
+        <v>2637</v>
+      </c>
+      <c r="D818" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F818" s="0" t="n">
+        <v>2539</v>
+      </c>
+      <c r="I818" s="0" t="n">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A819" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C819" s="1" t="n">
+        <f aca="false">I838-F838</f>
+        <v>29753</v>
+      </c>
+      <c r="D819" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="F819" s="0" t="n">
+        <v>22269</v>
+      </c>
+      <c r="I819" s="0" t="n">
+        <v>33898</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A820" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C820" s="1" t="n">
+        <f aca="false">I839-F839</f>
+        <v>3941</v>
+      </c>
+      <c r="D820" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F820" s="0" t="n">
+        <v>3916</v>
+      </c>
+      <c r="I820" s="0" t="n">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A821" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C821" s="1" t="n">
+        <f aca="false">I840-F840</f>
+        <v>1552</v>
+      </c>
+      <c r="D821" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F821" s="0" t="n">
+        <v>1549</v>
+      </c>
+      <c r="I821" s="0" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A822" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C822" s="1" t="n">
+        <f aca="false">I841-F841</f>
+        <v>4491</v>
+      </c>
+      <c r="D822" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F822" s="0" t="n">
+        <v>3934</v>
+      </c>
+      <c r="I822" s="0" t="n">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A823" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C823" s="1" t="n">
+        <f aca="false">I842-F842</f>
+        <v>33100</v>
+      </c>
+      <c r="D823" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="F823" s="0" t="n">
+        <v>15802</v>
+      </c>
+      <c r="I823" s="0" t="n">
+        <v>33419</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A824" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C824" s="1" t="n">
+        <f aca="false">I843-F843</f>
+        <v>1998</v>
+      </c>
+      <c r="D824" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F824" s="0" t="n">
+        <v>1941</v>
+      </c>
+      <c r="I824" s="0" t="n">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A825" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C825" s="1" t="n">
+        <f aca="false">I844-F844</f>
+        <v>1037</v>
+      </c>
+      <c r="D825" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F825" s="0" t="n">
+        <v>1036</v>
+      </c>
+      <c r="I825" s="0" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A826" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C826" s="1" t="n">
+        <f aca="false">I845-F845</f>
+        <v>12160</v>
+      </c>
+      <c r="D826" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F826" s="0" t="n">
+        <v>7653</v>
+      </c>
+      <c r="I826" s="0" t="n">
+        <v>14029</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A827" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C827" s="1" t="n">
+        <f aca="false">I846-F846</f>
+        <v>10755</v>
+      </c>
+      <c r="D827" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="F827" s="0" t="n">
+        <v>10409</v>
+      </c>
+      <c r="I827" s="0" t="n">
+        <v>14682</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A828" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C828" s="1" t="n">
+        <f aca="false">I847-F847</f>
+        <v>27977</v>
+      </c>
+      <c r="D828" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="F828" s="0" t="n">
+        <v>24786</v>
+      </c>
+      <c r="I828" s="0" t="n">
+        <v>40866</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A829" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C829" s="1" t="n">
+        <f aca="false">I848-F848</f>
+        <v>200</v>
+      </c>
+      <c r="D829" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F829" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I829" s="0" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A830" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C830" s="1" t="n">
+        <f aca="false">I849-F849</f>
+        <v>8143</v>
+      </c>
+      <c r="D830" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F830" s="0" t="n">
+        <v>7844</v>
+      </c>
+      <c r="I830" s="0" t="n">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A831" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C831" s="1" t="n">
+        <f aca="false">I850-F850</f>
+        <v>6372</v>
+      </c>
+      <c r="D831" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="F831" s="0" t="n">
+        <v>6266</v>
+      </c>
+      <c r="I831" s="0" t="n">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A832" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C832" s="1" t="n">
+        <f aca="false">I851-F851</f>
+        <v>1587</v>
+      </c>
+      <c r="D832" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F832" s="0" t="n">
+        <v>1565</v>
+      </c>
+      <c r="I832" s="0" t="n">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A833" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C833" s="1" t="n">
+        <f aca="false">I852-F852</f>
+        <v>26047</v>
+      </c>
+      <c r="D833" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F833" s="0" t="n">
+        <v>24817</v>
+      </c>
+      <c r="I833" s="0" t="n">
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A834" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C834" s="1" t="n">
+        <f aca="false">I853-F853</f>
+        <v>286</v>
+      </c>
+      <c r="D834" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F834" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="I834" s="0" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A835" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C835" s="1" t="n">
+        <f aca="false">I854-F854</f>
+        <v>10801</v>
+      </c>
+      <c r="D835" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F835" s="0" t="n">
+        <v>7093</v>
+      </c>
+      <c r="I835" s="0" t="n">
+        <v>11373</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A836" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C836" s="1" t="n">
+        <f aca="false">I855-F855</f>
+        <v>1260</v>
+      </c>
+      <c r="D836" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F836" s="0" t="n">
+        <v>1245</v>
+      </c>
+      <c r="I836" s="0" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A837" s="6" t="n">
+        <v>44210</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C837" s="1" t="n">
+        <f aca="false">I856-F856</f>
+        <v>4010</v>
+      </c>
+      <c r="D837" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F837" s="0" t="n">
+        <v>3883</v>
+      </c>
+      <c r="I837" s="0" t="n">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A838" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C838" s="1" t="n">
+        <f aca="false">I857-F857</f>
+        <v>41969</v>
+      </c>
+      <c r="D838" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="F838" s="0" t="n">
+        <v>32851</v>
+      </c>
+      <c r="I838" s="0" t="n">
+        <v>62604</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A839" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C839" s="1" t="n">
+        <f aca="false">I858-F858</f>
+        <v>5077</v>
+      </c>
+      <c r="D839" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F839" s="0" t="n">
+        <v>5037</v>
+      </c>
+      <c r="I839" s="0" t="n">
+        <v>8978</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A840" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C840" s="1" t="n">
+        <f aca="false">I859-F859</f>
+        <v>2312</v>
+      </c>
+      <c r="D840" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="F840" s="0" t="n">
+        <v>2310</v>
+      </c>
+      <c r="I840" s="0" t="n">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A841" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C841" s="1" t="n">
+        <f aca="false">I860-F860</f>
+        <v>4141</v>
+      </c>
+      <c r="D841" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F841" s="0" t="n">
+        <v>3552</v>
+      </c>
+      <c r="I841" s="0" t="n">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A842" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C842" s="1" t="n">
+        <f aca="false">I861-F861</f>
+        <v>44269</v>
+      </c>
+      <c r="D842" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="F842" s="0" t="n">
+        <v>25253</v>
+      </c>
+      <c r="I842" s="0" t="n">
+        <v>58353</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A843" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C843" s="1" t="n">
+        <f aca="false">I862-F862</f>
+        <v>2011</v>
+      </c>
+      <c r="D843" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F843" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="I843" s="0" t="n">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A844" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C844" s="1" t="n">
+        <f aca="false">I863-F863</f>
+        <v>1122</v>
+      </c>
+      <c r="D844" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F844" s="0" t="n">
+        <v>1120</v>
+      </c>
+      <c r="I844" s="0" t="n">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A845" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C845" s="1" t="n">
+        <f aca="false">I864-F864</f>
+        <v>15322</v>
+      </c>
+      <c r="D845" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F845" s="0" t="n">
+        <v>11027</v>
+      </c>
+      <c r="I845" s="0" t="n">
+        <v>23187</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A846" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C846" s="1" t="n">
+        <f aca="false">I865-F865</f>
+        <v>17222</v>
+      </c>
+      <c r="D846" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F846" s="0" t="n">
+        <v>16656</v>
+      </c>
+      <c r="I846" s="0" t="n">
+        <v>27411</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A847" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C847" s="1" t="n">
+        <f aca="false">I866-F866</f>
+        <v>24705</v>
+      </c>
+      <c r="D847" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F847" s="0" t="n">
+        <v>22210</v>
+      </c>
+      <c r="I847" s="0" t="n">
+        <v>50187</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A848" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C848" s="1" t="n">
+        <f aca="false">I867-F867</f>
+        <v>212</v>
+      </c>
+      <c r="D848" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F848" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="I848" s="0" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A849" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C849" s="1" t="n">
+        <f aca="false">I868-F868</f>
+        <v>7824</v>
+      </c>
+      <c r="D849" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="F849" s="0" t="n">
+        <v>7526</v>
+      </c>
+      <c r="I849" s="0" t="n">
+        <v>15669</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A850" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C850" s="1" t="n">
+        <f aca="false">I869-F869</f>
+        <v>9540</v>
+      </c>
+      <c r="D850" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="F850" s="0" t="n">
+        <v>9460</v>
+      </c>
+      <c r="I850" s="0" t="n">
+        <v>15832</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A851" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C851" s="1" t="n">
+        <f aca="false">I870-F870</f>
+        <v>2079</v>
+      </c>
+      <c r="D851" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F851" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I851" s="0" t="n">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A852" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C852" s="1" t="n">
+        <f aca="false">I871-F871</f>
+        <v>34712</v>
+      </c>
+      <c r="D852" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="F852" s="0" t="n">
+        <v>32262</v>
+      </c>
+      <c r="I852" s="0" t="n">
+        <v>58309</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A853" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C853" s="1" t="n">
+        <f aca="false">I872-F872</f>
+        <v>427</v>
+      </c>
+      <c r="D853" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F853" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="I853" s="0" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A854" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C854" s="1" t="n">
+        <f aca="false">I873-F873</f>
+        <v>12054</v>
+      </c>
+      <c r="D854" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F854" s="0" t="n">
+        <v>8424</v>
+      </c>
+      <c r="I854" s="0" t="n">
+        <v>19225</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A855" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C855" s="1" t="n">
+        <f aca="false">I874-F874</f>
+        <v>1554</v>
+      </c>
+      <c r="D855" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F855" s="0" t="n">
+        <v>1537</v>
+      </c>
+      <c r="I855" s="0" t="n">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A856" s="6" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C856" s="1" t="n">
+        <f aca="false">I875-F875</f>
+        <v>5017</v>
+      </c>
+      <c r="D856" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="F856" s="0" t="n">
+        <v>4876</v>
+      </c>
+      <c r="I856" s="0" t="n">
+        <v>8886</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A857" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C857" s="1" t="n">
+        <f aca="false">I876-F876</f>
+        <v>45331</v>
+      </c>
+      <c r="D857" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="F857" s="0" t="n">
+        <v>32583</v>
+      </c>
+      <c r="I857" s="0" t="n">
+        <v>74552</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A858" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C858" s="1" t="n">
+        <f aca="false">I877-F877</f>
+        <v>5080</v>
+      </c>
+      <c r="D858" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F858" s="0" t="n">
+        <v>5099</v>
+      </c>
+      <c r="I858" s="0" t="n">
+        <v>10176</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A859" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C859" s="1" t="n">
+        <f aca="false">I878-F878</f>
+        <v>3517</v>
+      </c>
+      <c r="D859" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="F859" s="0" t="n">
+        <v>3480</v>
+      </c>
+      <c r="I859" s="0" t="n">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A860" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C860" s="1" t="n">
+        <f aca="false">I879-F879</f>
+        <v>3452</v>
+      </c>
+      <c r="D860" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F860" s="0" t="n">
+        <v>3122</v>
+      </c>
+      <c r="I860" s="0" t="n">
+        <v>7263</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A861" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C861" s="1" t="n">
+        <f aca="false">I880-F880</f>
+        <v>40990</v>
+      </c>
+      <c r="D861" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="F861" s="0" t="n">
+        <v>27705</v>
+      </c>
+      <c r="I861" s="0" t="n">
+        <v>71974</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A862" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C862" s="1" t="n">
+        <f aca="false">I881-F881</f>
+        <v>2033</v>
+      </c>
+      <c r="D862" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F862" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="I862" s="0" t="n">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A863" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C863" s="1" t="n">
+        <f aca="false">I882-F882</f>
+        <v>1157</v>
+      </c>
+      <c r="D863" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F863" s="0" t="n">
+        <v>1188</v>
+      </c>
+      <c r="I863" s="0" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A864" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C864" s="1" t="n">
+        <f aca="false">I883-F883</f>
+        <v>13376</v>
+      </c>
+      <c r="D864" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F864" s="0" t="n">
+        <v>9849</v>
+      </c>
+      <c r="I864" s="0" t="n">
+        <v>25171</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A865" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C865" s="1" t="n">
+        <f aca="false">I884-F884</f>
+        <v>17114</v>
+      </c>
+      <c r="D865" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F865" s="0" t="n">
+        <v>16724</v>
+      </c>
+      <c r="I865" s="0" t="n">
+        <v>33946</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A866" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C866" s="1" t="n">
+        <f aca="false">I885-F885</f>
+        <v>21390</v>
+      </c>
+      <c r="D866" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F866" s="0" t="n">
+        <v>19310</v>
+      </c>
+      <c r="I866" s="0" t="n">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A867" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C867" s="1" t="n">
+        <f aca="false">I886-F886</f>
+        <v>253</v>
+      </c>
+      <c r="D867" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F867" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="I867" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A868" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C868" s="1" t="n">
+        <f aca="false">I887-F887</f>
+        <v>5445</v>
+      </c>
+      <c r="D868" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F868" s="0" t="n">
+        <v>5254</v>
+      </c>
+      <c r="I868" s="0" t="n">
+        <v>13078</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A869" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C869" s="1" t="n">
+        <f aca="false">I888-F888</f>
+        <v>11645</v>
+      </c>
+      <c r="D869" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="F869" s="0" t="n">
+        <v>10755</v>
+      </c>
+      <c r="I869" s="0" t="n">
+        <v>20295</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A870" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C870" s="1" t="n">
+        <f aca="false">I889-F889</f>
+        <v>2166</v>
+      </c>
+      <c r="D870" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F870" s="0" t="n">
+        <v>2116</v>
+      </c>
+      <c r="I870" s="0" t="n">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A871" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C871" s="1" t="n">
+        <f aca="false">I890-F890</f>
+        <v>33637</v>
+      </c>
+      <c r="D871" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="F871" s="0" t="n">
+        <v>31575</v>
+      </c>
+      <c r="I871" s="0" t="n">
+        <v>66287</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A872" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C872" s="1" t="n">
+        <f aca="false">I891-F891</f>
+        <v>453</v>
+      </c>
+      <c r="D872" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F872" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="I872" s="0" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A873" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C873" s="1" t="n">
+        <f aca="false">I892-F892</f>
+        <v>8669</v>
+      </c>
+      <c r="D873" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F873" s="0" t="n">
+        <v>7941</v>
+      </c>
+      <c r="I873" s="0" t="n">
+        <v>19995</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A874" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C874" s="1" t="n">
+        <f aca="false">I893-F893</f>
+        <v>1687</v>
+      </c>
+      <c r="D874" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F874" s="0" t="n">
+        <v>1673</v>
+      </c>
+      <c r="I874" s="0" t="n">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A875" s="6" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C875" s="1" t="n">
+        <f aca="false">I894-F894</f>
+        <v>6075</v>
+      </c>
+      <c r="D875" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="F875" s="0" t="n">
+        <v>5859</v>
+      </c>
+      <c r="I875" s="0" t="n">
+        <v>10876</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A876" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F876" s="0" t="n">
+        <v>29440</v>
+      </c>
+      <c r="I876" s="0" t="n">
+        <v>74771</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A877" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F877" s="0" t="n">
+        <v>3849</v>
+      </c>
+      <c r="I877" s="0" t="n">
+        <v>8929</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A878" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F878" s="0" t="n">
+        <v>3150</v>
+      </c>
+      <c r="I878" s="0" t="n">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A879" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F879" s="0" t="n">
+        <v>1879</v>
+      </c>
+      <c r="I879" s="0" t="n">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A880" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F880" s="0" t="n">
+        <v>21307</v>
+      </c>
+      <c r="I880" s="0" t="n">
+        <v>62297</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A881" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F881" s="0" t="n">
+        <v>1708</v>
+      </c>
+      <c r="I881" s="0" t="n">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A882" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F882" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="I882" s="0" t="n">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A883" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F883" s="0" t="n">
+        <v>6577</v>
+      </c>
+      <c r="I883" s="0" t="n">
+        <v>19953</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A884" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F884" s="0" t="n">
+        <v>11147</v>
+      </c>
+      <c r="I884" s="0" t="n">
+        <v>28261</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A885" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F885" s="0" t="n">
+        <v>15222</v>
+      </c>
+      <c r="I885" s="0" t="n">
+        <v>36612</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A886" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F886" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="I886" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A887" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F887" s="0" t="n">
+        <v>2778</v>
+      </c>
+      <c r="I887" s="0" t="n">
+        <v>8223</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A888" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F888" s="0" t="n">
+        <v>8066</v>
+      </c>
+      <c r="I888" s="0" t="n">
+        <v>19711</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A889" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F889" s="0" t="n">
+        <v>1510</v>
+      </c>
+      <c r="I889" s="0" t="n">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A890" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F890" s="0" t="n">
+        <v>25570</v>
+      </c>
+      <c r="I890" s="0" t="n">
+        <v>59207</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A891" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F891" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="I891" s="0" t="n">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A892" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F892" s="0" t="n">
+        <v>3902</v>
+      </c>
+      <c r="I892" s="0" t="n">
+        <v>12571</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A893" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F893" s="0" t="n">
+        <v>1442</v>
+      </c>
+      <c r="I893" s="0" t="n">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A894" s="6" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F894" s="0" t="n">
+        <v>5766</v>
+      </c>
+      <c r="I894" s="0" t="n">
+        <v>11841</v>
+      </c>
+    </row>
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -323,11 +323,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A848" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C800" activeCellId="0" sqref="C800:D875"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A929" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D950" activeCellId="0" sqref="D950"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -22770,6 +22770,13 @@
       <c r="B876" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C876" s="1" t="n">
+        <f aca="false">I895-F895</f>
+        <v>34683</v>
+      </c>
+      <c r="D876" s="0" t="n">
+        <v>261</v>
+      </c>
       <c r="F876" s="0" t="n">
         <v>29440</v>
       </c>
@@ -22784,6 +22791,13 @@
       <c r="B877" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C877" s="1" t="n">
+        <f aca="false">I896-F896</f>
+        <v>3854</v>
+      </c>
+      <c r="D877" s="0" t="n">
+        <v>91</v>
+      </c>
       <c r="F877" s="0" t="n">
         <v>3849</v>
       </c>
@@ -22798,6 +22812,13 @@
       <c r="B878" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C878" s="1" t="n">
+        <f aca="false">I897-F897</f>
+        <v>3155</v>
+      </c>
+      <c r="D878" s="0" t="n">
+        <v>53</v>
+      </c>
       <c r="F878" s="0" t="n">
         <v>3150</v>
       </c>
@@ -22812,6 +22833,13 @@
       <c r="B879" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C879" s="1" t="n">
+        <f aca="false">I898-F898</f>
+        <v>2053</v>
+      </c>
+      <c r="D879" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="F879" s="0" t="n">
         <v>1879</v>
       </c>
@@ -22826,6 +22854,13 @@
       <c r="B880" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C880" s="1" t="n">
+        <f aca="false">I899-F899</f>
+        <v>37736</v>
+      </c>
+      <c r="D880" s="0" t="n">
+        <v>325</v>
+      </c>
       <c r="F880" s="0" t="n">
         <v>21307</v>
       </c>
@@ -22840,6 +22875,13 @@
       <c r="B881" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C881" s="1" t="n">
+        <f aca="false">I900-F900</f>
+        <v>1737</v>
+      </c>
+      <c r="D881" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="F881" s="0" t="n">
         <v>1708</v>
       </c>
@@ -22854,6 +22896,13 @@
       <c r="B882" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C882" s="1" t="n">
+        <f aca="false">I901-F901</f>
+        <v>936</v>
+      </c>
+      <c r="D882" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="F882" s="0" t="n">
         <v>936</v>
       </c>
@@ -22868,6 +22917,13 @@
       <c r="B883" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C883" s="1" t="n">
+        <f aca="false">I902-F902</f>
+        <v>8352</v>
+      </c>
+      <c r="D883" s="0" t="n">
+        <v>167</v>
+      </c>
       <c r="F883" s="0" t="n">
         <v>6577</v>
       </c>
@@ -22882,6 +22938,13 @@
       <c r="B884" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C884" s="1" t="n">
+        <f aca="false">I903-F903</f>
+        <v>11397</v>
+      </c>
+      <c r="D884" s="0" t="n">
+        <v>172</v>
+      </c>
       <c r="F884" s="0" t="n">
         <v>11147</v>
       </c>
@@ -22896,6 +22959,13 @@
       <c r="B885" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C885" s="1" t="n">
+        <f aca="false">I904-F904</f>
+        <v>17451</v>
+      </c>
+      <c r="D885" s="0" t="n">
+        <v>85</v>
+      </c>
       <c r="F885" s="0" t="n">
         <v>15222</v>
       </c>
@@ -22910,6 +22980,13 @@
       <c r="B886" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C886" s="1" t="n">
+        <f aca="false">I905-F905</f>
+        <v>247</v>
+      </c>
+      <c r="D886" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F886" s="0" t="n">
         <v>247</v>
       </c>
@@ -22924,6 +23001,13 @@
       <c r="B887" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C887" s="1" t="n">
+        <f aca="false">I906-F906</f>
+        <v>2831</v>
+      </c>
+      <c r="D887" s="0" t="n">
+        <v>68</v>
+      </c>
       <c r="F887" s="0" t="n">
         <v>2778</v>
       </c>
@@ -22938,6 +23022,13 @@
       <c r="B888" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C888" s="1" t="n">
+        <f aca="false">I907-F907</f>
+        <v>8671</v>
+      </c>
+      <c r="D888" s="0" t="n">
+        <v>141</v>
+      </c>
       <c r="F888" s="0" t="n">
         <v>8066</v>
       </c>
@@ -22952,6 +23043,13 @@
       <c r="B889" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C889" s="1" t="n">
+        <f aca="false">I908-F908</f>
+        <v>1525</v>
+      </c>
+      <c r="D889" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F889" s="0" t="n">
         <v>1510</v>
       </c>
@@ -22966,6 +23064,13 @@
       <c r="B890" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C890" s="1" t="n">
+        <f aca="false">I909-F909</f>
+        <v>26812</v>
+      </c>
+      <c r="D890" s="0" t="n">
+        <v>99</v>
+      </c>
       <c r="F890" s="0" t="n">
         <v>25570</v>
       </c>
@@ -22980,6 +23085,13 @@
       <c r="B891" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C891" s="1" t="n">
+        <f aca="false">I910-F910</f>
+        <v>382</v>
+      </c>
+      <c r="D891" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="F891" s="0" t="n">
         <v>368</v>
       </c>
@@ -22994,6 +23106,13 @@
       <c r="B892" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C892" s="1" t="n">
+        <f aca="false">I911-F911</f>
+        <v>4318</v>
+      </c>
+      <c r="D892" s="0" t="n">
+        <v>70</v>
+      </c>
       <c r="F892" s="0" t="n">
         <v>3902</v>
       </c>
@@ -23008,6 +23127,13 @@
       <c r="B893" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C893" s="1" t="n">
+        <f aca="false">I912-F912</f>
+        <v>1466</v>
+      </c>
+      <c r="D893" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F893" s="0" t="n">
         <v>1442</v>
       </c>
@@ -23022,6 +23148,13 @@
       <c r="B894" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C894" s="1" t="n">
+        <f aca="false">I913-F913</f>
+        <v>5922</v>
+      </c>
+      <c r="D894" s="0" t="n">
+        <v>67</v>
+      </c>
       <c r="F894" s="0" t="n">
         <v>5766</v>
       </c>
@@ -23029,82 +23162,1469 @@
         <v>11841</v>
       </c>
     </row>
-    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A895" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C895" s="1" t="n">
+        <f aca="false">I914-F914</f>
+        <v>21575</v>
+      </c>
+      <c r="D895" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="F895" s="0" t="n">
+        <v>18765</v>
+      </c>
+      <c r="I895" s="0" t="n">
+        <v>53448</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A896" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C896" s="1" t="n">
+        <f aca="false">I915-F915</f>
+        <v>2924</v>
+      </c>
+      <c r="D896" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="F896" s="0" t="n">
+        <v>2884</v>
+      </c>
+      <c r="I896" s="0" t="n">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A897" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C897" s="1" t="n">
+        <f aca="false">I916-F916</f>
+        <v>2137</v>
+      </c>
+      <c r="D897" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F897" s="0" t="n">
+        <v>2138</v>
+      </c>
+      <c r="I897" s="0" t="n">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A898" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C898" s="1" t="n">
+        <f aca="false">I917-F917</f>
+        <v>972</v>
+      </c>
+      <c r="D898" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F898" s="0" t="n">
+        <v>902</v>
+      </c>
+      <c r="I898" s="0" t="n">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A899" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C899" s="1" t="n">
+        <f aca="false">I918-F918</f>
+        <v>12603</v>
+      </c>
+      <c r="D899" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="F899" s="0" t="n">
+        <v>1147</v>
+      </c>
+      <c r="I899" s="0" t="n">
+        <v>38883</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A900" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C900" s="1" t="n">
+        <f aca="false">I919-F919</f>
+        <v>1409</v>
+      </c>
+      <c r="D900" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F900" s="0" t="n">
+        <v>1387</v>
+      </c>
+      <c r="I900" s="0" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A901" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C901" s="1" t="n">
+        <f aca="false">I920-F920</f>
+        <v>648</v>
+      </c>
+      <c r="D901" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F901" s="0" t="n">
+        <v>648</v>
+      </c>
+      <c r="I901" s="0" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A902" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C902" s="1" t="n">
+        <f aca="false">I921-F921</f>
+        <v>4095</v>
+      </c>
+      <c r="D902" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="F902" s="0" t="n">
+        <v>3378</v>
+      </c>
+      <c r="I902" s="0" t="n">
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A903" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C903" s="1" t="n">
+        <f aca="false">I922-F922</f>
+        <v>5966</v>
+      </c>
+      <c r="D903" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="F903" s="0" t="n">
+        <v>5874</v>
+      </c>
+      <c r="I903" s="0" t="n">
+        <v>17271</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A904" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C904" s="1" t="n">
+        <f aca="false">I923-F923</f>
+        <v>12627</v>
+      </c>
+      <c r="D904" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F904" s="0" t="n">
+        <v>11350</v>
+      </c>
+      <c r="I904" s="0" t="n">
+        <v>28801</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A905" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C905" s="1" t="n">
+        <f aca="false">I924-F924</f>
+        <v>180</v>
+      </c>
+      <c r="D905" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F905" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="I905" s="0" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A906" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C906" s="1" t="n">
+        <f aca="false">I925-F925</f>
+        <v>1170</v>
+      </c>
+      <c r="D906" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F906" s="0" t="n">
+        <v>1147</v>
+      </c>
+      <c r="I906" s="0" t="n">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A907" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C907" s="1" t="n">
+        <f aca="false">I926-F926</f>
+        <v>5109</v>
+      </c>
+      <c r="D907" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="F907" s="0" t="n">
+        <v>4754</v>
+      </c>
+      <c r="I907" s="0" t="n">
+        <v>13425</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A908" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C908" s="1" t="n">
+        <f aca="false">I927-F927</f>
+        <v>524</v>
+      </c>
+      <c r="D908" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F908" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="I908" s="0" t="n">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A909" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C909" s="1" t="n">
+        <f aca="false">I928-F928</f>
+        <v>18515</v>
+      </c>
+      <c r="D909" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="F909" s="0" t="n">
+        <v>17821</v>
+      </c>
+      <c r="I909" s="0" t="n">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A910" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C910" s="1" t="n">
+        <f aca="false">I929-F929</f>
+        <v>270</v>
+      </c>
+      <c r="D910" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F910" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="I910" s="0" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A911" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C911" s="1" t="n">
+        <f aca="false">I930-F930</f>
+        <v>2038</v>
+      </c>
+      <c r="D911" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F911" s="0" t="n">
+        <v>1866</v>
+      </c>
+      <c r="I911" s="0" t="n">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A912" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C912" s="1" t="n">
+        <f aca="false">I931-F931</f>
+        <v>911</v>
+      </c>
+      <c r="D912" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F912" s="0" t="n">
+        <v>905</v>
+      </c>
+      <c r="I912" s="0" t="n">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A913" s="6" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C913" s="1" t="n">
+        <f aca="false">I932-F932</f>
+        <v>4677</v>
+      </c>
+      <c r="D913" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F913" s="0" t="n">
+        <v>4630</v>
+      </c>
+      <c r="I913" s="0" t="n">
+        <v>10552</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A914" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C914" s="1" t="n">
+        <f aca="false">I933-F933</f>
+        <v>12040</v>
+      </c>
+      <c r="D914" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F914" s="0" t="n">
+        <v>9979</v>
+      </c>
+      <c r="I914" s="0" t="n">
+        <v>31554</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A915" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C915" s="1" t="n">
+        <f aca="false">I934-F934</f>
+        <v>1764</v>
+      </c>
+      <c r="D915" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F915" s="0" t="n">
+        <v>1793</v>
+      </c>
+      <c r="I915" s="0" t="n">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A916" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C916" s="1" t="n">
+        <f aca="false">I935-F935</f>
+        <v>1297</v>
+      </c>
+      <c r="D916" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F916" s="0" t="n">
+        <v>1286</v>
+      </c>
+      <c r="I916" s="0" t="n">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A917" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C917" s="1" t="n">
+        <f aca="false">I936-F936</f>
+        <v>725</v>
+      </c>
+      <c r="D917" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F917" s="0" t="n">
+        <v>664</v>
+      </c>
+      <c r="I917" s="0" t="n">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A918" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C918" s="1" t="n">
+        <f aca="false">I937-F937</f>
+        <v>5394</v>
+      </c>
+      <c r="D918" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F918" s="0" t="n">
+        <v>4627</v>
+      </c>
+      <c r="I918" s="0" t="n">
+        <v>17230</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A919" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C919" s="1" t="n">
+        <f aca="false">I938-F938</f>
+        <v>1150</v>
+      </c>
+      <c r="D919" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F919" s="0" t="n">
+        <v>1141</v>
+      </c>
+      <c r="I919" s="0" t="n">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A920" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C920" s="1" t="n">
+        <f aca="false">I939-F939</f>
+        <v>471</v>
+      </c>
+      <c r="D920" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F920" s="0" t="n">
+        <v>471</v>
+      </c>
+      <c r="I920" s="0" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A921" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C921" s="1" t="n">
+        <f aca="false">I940-F940</f>
+        <v>1818</v>
+      </c>
+      <c r="D921" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="F921" s="0" t="n">
+        <v>1505</v>
+      </c>
+      <c r="I921" s="0" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A922" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C922" s="1" t="n">
+        <f aca="false">I941-F941</f>
+        <v>3099</v>
+      </c>
+      <c r="D922" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F922" s="0" t="n">
+        <v>3054</v>
+      </c>
+      <c r="I922" s="0" t="n">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A923" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C923" s="1" t="n">
+        <f aca="false">I942-F942</f>
+        <v>9510</v>
+      </c>
+      <c r="D923" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="F923" s="0" t="n">
+        <v>7561</v>
+      </c>
+      <c r="I923" s="0" t="n">
+        <v>20188</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A924" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C924" s="1" t="n">
+        <f aca="false">I943-F943</f>
+        <v>172</v>
+      </c>
+      <c r="D924" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F924" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="I924" s="0" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A925" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C925" s="1" t="n">
+        <f aca="false">I944-F944</f>
+        <v>527</v>
+      </c>
+      <c r="D925" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F925" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="I925" s="0" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A926" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C926" s="1" t="n">
+        <f aca="false">I945-F945</f>
+        <v>2865</v>
+      </c>
+      <c r="D926" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F926" s="0" t="n">
+        <v>2617</v>
+      </c>
+      <c r="I926" s="0" t="n">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A927" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C927" s="1" t="n">
+        <f aca="false">I946-F946</f>
+        <v>257</v>
+      </c>
+      <c r="D927" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F927" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="I927" s="0" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A928" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C928" s="1" t="n">
+        <f aca="false">I947-F947</f>
+        <v>12386</v>
+      </c>
+      <c r="D928" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F928" s="0" t="n">
+        <v>11921</v>
+      </c>
+      <c r="I928" s="0" t="n">
+        <v>30436</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A929" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C929" s="1" t="n">
+        <f aca="false">I948-F948</f>
+        <v>194</v>
+      </c>
+      <c r="D929" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F929" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="I929" s="0" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A930" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C930" s="1" t="n">
+        <f aca="false">I949-F949</f>
+        <v>1139</v>
+      </c>
+      <c r="D930" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F930" s="0" t="n">
+        <v>1061</v>
+      </c>
+      <c r="I930" s="0" t="n">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A931" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C931" s="1" t="n">
+        <f aca="false">I950-F950</f>
+        <v>494</v>
+      </c>
+      <c r="D931" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F931" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="I931" s="0" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A932" s="6" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C932" s="1" t="n">
+        <f aca="false">I951-F951</f>
+        <v>3216</v>
+      </c>
+      <c r="D932" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F932" s="0" t="n">
+        <v>3195</v>
+      </c>
+      <c r="I932" s="0" t="n">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A933" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C933" s="1" t="n">
+        <f aca="false">I952-F952</f>
+        <v>7222</v>
+      </c>
+      <c r="D933" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="F933" s="0" t="n">
+        <v>6219</v>
+      </c>
+      <c r="I933" s="0" t="n">
+        <v>18259</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A934" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C934" s="1" t="n">
+        <f aca="false">I953-F953</f>
+        <v>1274</v>
+      </c>
+      <c r="D934" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F934" s="0" t="n">
+        <v>1277</v>
+      </c>
+      <c r="I934" s="0" t="n">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A935" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C935" s="1" t="n">
+        <f aca="false">I954-F954</f>
+        <v>1026</v>
+      </c>
+      <c r="D935" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F935" s="0" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I935" s="0" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A936" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C936" s="1" t="n">
+        <f aca="false">I955-F955</f>
+        <v>418</v>
+      </c>
+      <c r="D936" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F936" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="I936" s="0" t="n">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A937" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C937" s="1" t="n">
+        <f aca="false">I956-F956</f>
+        <v>2728</v>
+      </c>
+      <c r="D937" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="F937" s="0" t="n">
+        <v>2403</v>
+      </c>
+      <c r="I937" s="0" t="n">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A938" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C938" s="1" t="n">
+        <f aca="false">I957-F957</f>
+        <v>1196</v>
+      </c>
+      <c r="D938" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F938" s="0" t="n">
+        <v>1176</v>
+      </c>
+      <c r="I938" s="0" t="n">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A939" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C939" s="1" t="n">
+        <f aca="false">I958-F958</f>
+        <v>421</v>
+      </c>
+      <c r="D939" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F939" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="I939" s="0" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A940" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C940" s="1" t="n">
+        <f aca="false">I959-F959</f>
+        <v>1071</v>
+      </c>
+      <c r="D940" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F940" s="0" t="n">
+        <v>937</v>
+      </c>
+      <c r="I940" s="0" t="n">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A941" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C941" s="1" t="n">
+        <f aca="false">I960-F960</f>
+        <v>2028</v>
+      </c>
+      <c r="D941" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="F941" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="I941" s="0" t="n">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A942" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C942" s="1" t="n">
+        <f aca="false">I961-F961</f>
+        <v>8883</v>
+      </c>
+      <c r="D942" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F942" s="0" t="n">
+        <v>7325</v>
+      </c>
+      <c r="I942" s="0" t="n">
+        <v>16835</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A943" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C943" s="1" t="n">
+        <f aca="false">I962-F962</f>
+        <v>80</v>
+      </c>
+      <c r="D943" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F943" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I943" s="0" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A944" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C944" s="1" t="n">
+        <f aca="false">I963-F963</f>
+        <v>306</v>
+      </c>
+      <c r="D944" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F944" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="I944" s="0" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A945" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C945" s="1" t="n">
+        <f aca="false">I964-F964</f>
+        <v>1916</v>
+      </c>
+      <c r="D945" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F945" s="0" t="n">
+        <v>1762</v>
+      </c>
+      <c r="I945" s="0" t="n">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A946" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C946" s="1" t="n">
+        <f aca="false">I965-F965</f>
+        <v>105</v>
+      </c>
+      <c r="D946" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F946" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="I946" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A947" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C947" s="1" t="n">
+        <f aca="false">I966-F966</f>
+        <v>9388</v>
+      </c>
+      <c r="D947" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F947" s="0" t="n">
+        <v>9041</v>
+      </c>
+      <c r="I947" s="0" t="n">
+        <v>21427</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A948" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C948" s="1" t="n">
+        <f aca="false">I967-F967</f>
+        <v>182</v>
+      </c>
+      <c r="D948" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F948" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="I948" s="0" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A949" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C949" s="1" t="n">
+        <f aca="false">I968-F968</f>
+        <v>753</v>
+      </c>
+      <c r="D949" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F949" s="0" t="n">
+        <v>679</v>
+      </c>
+      <c r="I949" s="0" t="n">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A950" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C950" s="1" t="n">
+        <f aca="false">I969-F969</f>
+        <v>468</v>
+      </c>
+      <c r="D950" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F950" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="I950" s="0" t="n">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A951" s="6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C951" s="1" t="n">
+        <f aca="false">I970-F970</f>
+        <v>2617</v>
+      </c>
+      <c r="D951" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F951" s="0" t="n">
+        <v>2605</v>
+      </c>
+      <c r="I951" s="0" t="n">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A952" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F952" s="0" t="n">
+        <v>4220</v>
+      </c>
+      <c r="I952" s="0" t="n">
+        <v>11442</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A953" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F953" s="0" t="n">
+        <v>1126</v>
+      </c>
+      <c r="I953" s="0" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A954" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F954" s="0" t="n">
+        <v>964</v>
+      </c>
+      <c r="I954" s="0" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A955" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F955" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="I955" s="0" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A956" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F956" s="0" t="n">
+        <v>1463</v>
+      </c>
+      <c r="I956" s="0" t="n">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A957" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F957" s="0" t="n">
+        <v>1127</v>
+      </c>
+      <c r="I957" s="0" t="n">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A958" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F958" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="I958" s="0" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A959" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F959" s="0" t="n">
+        <v>806</v>
+      </c>
+      <c r="I959" s="0" t="n">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A960" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F960" s="0" t="n">
+        <v>1513</v>
+      </c>
+      <c r="I960" s="0" t="n">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A961" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F961" s="0" t="n">
+        <v>6230</v>
+      </c>
+      <c r="I961" s="0" t="n">
+        <v>15113</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A962" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F962" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="I962" s="0" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A963" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F963" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="I963" s="0" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A964" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F964" s="0" t="n">
+        <v>1171</v>
+      </c>
+      <c r="I964" s="0" t="n">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A965" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F965" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="I965" s="0" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A966" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F966" s="0" t="n">
+        <v>7478</v>
+      </c>
+      <c r="I966" s="0" t="n">
+        <v>16866</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A967" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F967" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="I967" s="0" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A968" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F968" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="I968" s="0" t="n">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A969" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F969" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="I969" s="0" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A970" s="6" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F970" s="0" t="n">
+        <v>1757</v>
+      </c>
+      <c r="I970" s="0" t="n">
+        <v>4374</v>
+      </c>
+    </row>
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -231,6 +231,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,6 +310,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,13 +331,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K1065"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A929" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D950" activeCellId="0" sqref="D950"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1022" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1045" activeCellId="0" sqref="D1045"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -24366,6 +24376,13 @@
       <c r="B952" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C952" s="1" t="n">
+        <f aca="false">I971-F971</f>
+        <v>5426</v>
+      </c>
+      <c r="D952" s="0" t="n">
+        <v>97</v>
+      </c>
       <c r="F952" s="0" t="n">
         <v>4220</v>
       </c>
@@ -24380,6 +24397,13 @@
       <c r="B953" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C953" s="1" t="n">
+        <f aca="false">I972-F972</f>
+        <v>1126</v>
+      </c>
+      <c r="D953" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="F953" s="0" t="n">
         <v>1126</v>
       </c>
@@ -24394,6 +24418,13 @@
       <c r="B954" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C954" s="1" t="n">
+        <f aca="false">I973-F973</f>
+        <v>961</v>
+      </c>
+      <c r="D954" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="F954" s="0" t="n">
         <v>964</v>
       </c>
@@ -24408,6 +24439,13 @@
       <c r="B955" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C955" s="1" t="n">
+        <f aca="false">I974-F974</f>
+        <v>346</v>
+      </c>
+      <c r="D955" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="F955" s="0" t="n">
         <v>323</v>
       </c>
@@ -24422,6 +24460,13 @@
       <c r="B956" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C956" s="1" t="n">
+        <f aca="false">I975-F975</f>
+        <v>1674</v>
+      </c>
+      <c r="D956" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="F956" s="0" t="n">
         <v>1463</v>
       </c>
@@ -24436,6 +24481,13 @@
       <c r="B957" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C957" s="1" t="n">
+        <f aca="false">I976-F976</f>
+        <v>1160</v>
+      </c>
+      <c r="D957" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="F957" s="0" t="n">
         <v>1127</v>
       </c>
@@ -24450,6 +24502,13 @@
       <c r="B958" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C958" s="1" t="n">
+        <f aca="false">I977-F977</f>
+        <v>293</v>
+      </c>
+      <c r="D958" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F958" s="0" t="n">
         <v>293</v>
       </c>
@@ -24464,6 +24523,13 @@
       <c r="B959" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C959" s="1" t="n">
+        <f aca="false">I978-F978</f>
+        <v>991</v>
+      </c>
+      <c r="D959" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F959" s="0" t="n">
         <v>806</v>
       </c>
@@ -24478,6 +24544,13 @@
       <c r="B960" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C960" s="1" t="n">
+        <f aca="false">I979-F979</f>
+        <v>1535</v>
+      </c>
+      <c r="D960" s="0" t="n">
+        <v>39</v>
+      </c>
       <c r="F960" s="0" t="n">
         <v>1513</v>
       </c>
@@ -24492,6 +24565,13 @@
       <c r="B961" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C961" s="1" t="n">
+        <f aca="false">I980-F980</f>
+        <v>7627</v>
+      </c>
+      <c r="D961" s="0" t="n">
+        <v>36</v>
+      </c>
       <c r="F961" s="0" t="n">
         <v>6230</v>
       </c>
@@ -24506,6 +24586,13 @@
       <c r="B962" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C962" s="1" t="n">
+        <f aca="false">I981-F981</f>
+        <v>156</v>
+      </c>
+      <c r="D962" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F962" s="0" t="n">
         <v>156</v>
       </c>
@@ -24520,6 +24607,13 @@
       <c r="B963" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C963" s="1" t="n">
+        <f aca="false">I982-F982</f>
+        <v>223</v>
+      </c>
+      <c r="D963" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="F963" s="0" t="n">
         <v>222</v>
       </c>
@@ -24534,6 +24628,13 @@
       <c r="B964" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C964" s="1" t="n">
+        <f aca="false">I983-F983</f>
+        <v>1301</v>
+      </c>
+      <c r="D964" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="F964" s="0" t="n">
         <v>1171</v>
       </c>
@@ -24548,6 +24649,13 @@
       <c r="B965" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C965" s="1" t="n">
+        <f aca="false">I984-F984</f>
+        <v>2130</v>
+      </c>
+      <c r="D965" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="F965" s="0" t="n">
         <v>121</v>
       </c>
@@ -24562,6 +24670,13 @@
       <c r="B966" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C966" s="1" t="n">
+        <f aca="false">I985-F985</f>
+        <v>7864</v>
+      </c>
+      <c r="D966" s="0" t="n">
+        <v>98</v>
+      </c>
       <c r="F966" s="0" t="n">
         <v>7478</v>
       </c>
@@ -24576,6 +24691,13 @@
       <c r="B967" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C967" s="1" t="n">
+        <f aca="false">I986-F986</f>
+        <v>150</v>
+      </c>
+      <c r="D967" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F967" s="0" t="n">
         <v>146</v>
       </c>
@@ -24590,6 +24712,13 @@
       <c r="B968" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C968" s="1" t="n">
+        <f aca="false">I987-F987</f>
+        <v>566</v>
+      </c>
+      <c r="D968" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="F968" s="0" t="n">
         <v>518</v>
       </c>
@@ -24604,6 +24733,13 @@
       <c r="B969" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C969" s="1" t="n">
+        <f aca="false">I988-F988</f>
+        <v>359</v>
+      </c>
+      <c r="D969" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="F969" s="0" t="n">
         <v>367</v>
       </c>
@@ -24618,6 +24754,13 @@
       <c r="B970" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C970" s="1" t="n">
+        <f aca="false">I989-F989</f>
+        <v>2047</v>
+      </c>
+      <c r="D970" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="F970" s="0" t="n">
         <v>1757</v>
       </c>
@@ -24625,36 +24768,1868 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A971" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C971" s="1" t="n">
+        <f aca="false">I990-F990</f>
+        <v>5810</v>
+      </c>
+      <c r="D971" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="F971" s="0" t="n">
+        <v>4865</v>
+      </c>
+      <c r="I971" s="0" t="n">
+        <v>10291</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A972" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C972" s="1" t="n">
+        <f aca="false">I991-F991</f>
+        <v>866</v>
+      </c>
+      <c r="D972" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F972" s="0" t="n">
+        <v>867</v>
+      </c>
+      <c r="I972" s="0" t="n">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A973" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C973" s="1" t="n">
+        <f aca="false">I992-F992</f>
+        <v>868</v>
+      </c>
+      <c r="D973" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F973" s="0" t="n">
+        <v>869</v>
+      </c>
+      <c r="I973" s="0" t="n">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A974" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C974" s="1" t="n">
+        <f aca="false">I993-F993</f>
+        <v>268</v>
+      </c>
+      <c r="D974" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F974" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="I974" s="0" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A975" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C975" s="1" t="n">
+        <f aca="false">I994-F994</f>
+        <v>1724</v>
+      </c>
+      <c r="D975" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F975" s="0" t="n">
+        <v>1034</v>
+      </c>
+      <c r="I975" s="0" t="n">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A976" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C976" s="1" t="n">
+        <f aca="false">I995-F995</f>
+        <v>1336</v>
+      </c>
+      <c r="D976" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F976" s="0" t="n">
+        <v>1319</v>
+      </c>
+      <c r="I976" s="0" t="n">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A977" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C977" s="1" t="n">
+        <f aca="false">I996-F996</f>
+        <v>271</v>
+      </c>
+      <c r="D977" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F977" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="I977" s="0" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A978" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C978" s="1" t="n">
+        <f aca="false">I997-F997</f>
+        <v>853</v>
+      </c>
+      <c r="D978" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F978" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="I978" s="0" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A979" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C979" s="1" t="n">
+        <f aca="false">I998-F998</f>
+        <v>1272</v>
+      </c>
+      <c r="D979" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F979" s="0" t="n">
+        <v>1254</v>
+      </c>
+      <c r="I979" s="0" t="n">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A980" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C980" s="1" t="n">
+        <f aca="false">I999-F999</f>
+        <v>6605</v>
+      </c>
+      <c r="D980" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F980" s="0" t="n">
+        <v>5399</v>
+      </c>
+      <c r="I980" s="0" t="n">
+        <v>13026</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A981" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C981" s="1" t="n">
+        <f aca="false">I1000-F1000</f>
+        <v>92</v>
+      </c>
+      <c r="D981" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F981" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="I981" s="0" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A982" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C982" s="1" t="n">
+        <f aca="false">I1001-F1001</f>
+        <v>244</v>
+      </c>
+      <c r="D982" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F982" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="I982" s="0" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A983" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C983" s="1" t="n">
+        <f aca="false">I1002-F1002</f>
+        <v>1036</v>
+      </c>
+      <c r="D983" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F983" s="0" t="n">
+        <v>940</v>
+      </c>
+      <c r="I983" s="0" t="n">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A984" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C984" s="1" t="n">
+        <f aca="false">I1003-F1003</f>
+        <v>114</v>
+      </c>
+      <c r="D984" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F984" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="I984" s="0" t="n">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A985" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C985" s="1" t="n">
+        <f aca="false">I1004-F1004</f>
+        <v>7522</v>
+      </c>
+      <c r="D985" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="F985" s="0" t="n">
+        <v>7177</v>
+      </c>
+      <c r="I985" s="0" t="n">
+        <v>15041</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A986" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" s="1" t="n">
+        <f aca="false">I1005-F1005</f>
+        <v>206</v>
+      </c>
+      <c r="D986" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F986" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="I986" s="0" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A987" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C987" s="1" t="n">
+        <f aca="false">I1006-F1006</f>
+        <v>533</v>
+      </c>
+      <c r="D987" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F987" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="I987" s="0" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A988" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C988" s="1" t="n">
+        <f aca="false">I1007-F1007</f>
+        <v>435</v>
+      </c>
+      <c r="D988" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F988" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="I988" s="0" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A989" s="6" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C989" s="1" t="n">
+        <f aca="false">I1008-F1008</f>
+        <v>1876</v>
+      </c>
+      <c r="D989" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F989" s="0" t="n">
+        <v>1852</v>
+      </c>
+      <c r="I989" s="0" t="n">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A990" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C990" s="1" t="n">
+        <f aca="false">I1009-F1009</f>
+        <v>5360</v>
+      </c>
+      <c r="D990" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F990" s="0" t="n">
+        <v>4447</v>
+      </c>
+      <c r="I990" s="0" t="n">
+        <v>10257</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A991" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C991" s="1" t="n">
+        <f aca="false">I1010-F1010</f>
+        <v>791</v>
+      </c>
+      <c r="D991" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F991" s="0" t="n">
+        <v>793</v>
+      </c>
+      <c r="I991" s="0" t="n">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A992" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C992" s="1" t="n">
+        <f aca="false">I1011-F1011</f>
+        <v>892</v>
+      </c>
+      <c r="D992" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F992" s="0" t="n">
+        <v>888</v>
+      </c>
+      <c r="I992" s="0" t="n">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A993" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C993" s="1" t="n">
+        <f aca="false">I1012-F1012</f>
+        <v>265</v>
+      </c>
+      <c r="D993" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F993" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="I993" s="0" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A994" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C994" s="1" t="n">
+        <f aca="false">I1013-F1013</f>
+        <v>865</v>
+      </c>
+      <c r="D994" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F994" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I994" s="0" t="n">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A995" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C995" s="1" t="n">
+        <f aca="false">I1014-F1014</f>
+        <v>1479</v>
+      </c>
+      <c r="D995" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F995" s="0" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I995" s="0" t="n">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A996" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C996" s="1" t="n">
+        <f aca="false">I1015-F1015</f>
+        <v>300</v>
+      </c>
+      <c r="D996" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F996" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="I996" s="0" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C997" s="1" t="n">
+        <f aca="false">I1016-F1016</f>
+        <v>850</v>
+      </c>
+      <c r="D997" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F997" s="0" t="n">
+        <v>625</v>
+      </c>
+      <c r="I997" s="0" t="n">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A998" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C998" s="1" t="n">
+        <f aca="false">I1017-F1017</f>
+        <v>1338</v>
+      </c>
+      <c r="D998" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F998" s="0" t="n">
+        <v>1313</v>
+      </c>
+      <c r="I998" s="0" t="n">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A999" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C999" s="1" t="n">
+        <f aca="false">I1018-F1018</f>
+        <v>7146</v>
+      </c>
+      <c r="D999" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F999" s="0" t="n">
+        <v>5833</v>
+      </c>
+      <c r="I999" s="0" t="n">
+        <v>12438</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1000" s="1" t="n">
+        <f aca="false">I1019-F1019</f>
+        <v>112</v>
+      </c>
+      <c r="D1000" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1000" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I1000" s="0" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1001" s="1" t="n">
+        <f aca="false">I1020-F1020</f>
+        <v>540</v>
+      </c>
+      <c r="D1001" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1001" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="I1001" s="0" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1002" s="1" t="n">
+        <f aca="false">I1021-F1021</f>
+        <v>1101</v>
+      </c>
+      <c r="D1002" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1002" s="0" t="n">
+        <v>973</v>
+      </c>
+      <c r="I1002" s="0" t="n">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1003" s="1" t="n">
+        <f aca="false">I1022-F1022</f>
+        <v>97</v>
+      </c>
+      <c r="D1003" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1003" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="I1003" s="0" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1004" s="1" t="n">
+        <f aca="false">I1023-F1023</f>
+        <v>7943</v>
+      </c>
+      <c r="D1004" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1004" s="0" t="n">
+        <v>7493</v>
+      </c>
+      <c r="I1004" s="0" t="n">
+        <v>15015</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1005" s="1" t="n">
+        <f aca="false">I1024-F1024</f>
+        <v>244</v>
+      </c>
+      <c r="D1005" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1005" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="I1005" s="0" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1006" s="1" t="n">
+        <f aca="false">I1025-F1025</f>
+        <v>419</v>
+      </c>
+      <c r="D1006" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1006" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="I1006" s="0" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1007" s="1" t="n">
+        <f aca="false">I1026-F1026</f>
+        <v>466</v>
+      </c>
+      <c r="D1007" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1007" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="I1007" s="0" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="6" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1008" s="1" t="n">
+        <f aca="false">I1027-F1027</f>
+        <v>2092</v>
+      </c>
+      <c r="D1008" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1008" s="0" t="n">
+        <v>2035</v>
+      </c>
+      <c r="I1008" s="0" t="n">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="6" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1009" s="1" t="n">
+        <f aca="false">I1028-F1028</f>
+        <v>5992</v>
+      </c>
+      <c r="D1009" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F1009" s="0" t="n">
+        <v>4870</v>
+      </c>
+      <c r="I1009" s="0" t="n">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1010" s="1" t="n">
+        <f aca="false">I1029-F1029</f>
+        <v>956</v>
+      </c>
+      <c r="D1010" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1010" s="0" t="n">
+        <v>961</v>
+      </c>
+      <c r="I1010" s="0" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1011" s="1" t="n">
+        <f aca="false">I1030-F1030</f>
+        <v>757</v>
+      </c>
+      <c r="D1011" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1011" s="0" t="n">
+        <v>755</v>
+      </c>
+      <c r="I1011" s="0" t="n">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1012" s="1" t="n">
+        <f aca="false">I1031-F1031</f>
+        <v>375</v>
+      </c>
+      <c r="D1012" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1012" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="I1012" s="0" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1013" s="1" t="n">
+        <f aca="false">I1032-F1032</f>
+        <v>721</v>
+      </c>
+      <c r="D1013" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1013" s="0" t="n">
+        <v>573</v>
+      </c>
+      <c r="I1013" s="0" t="n">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1014" s="1" t="n">
+        <f aca="false">I1033-F1033</f>
+        <v>1547</v>
+      </c>
+      <c r="D1014" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1014" s="0" t="n">
+        <v>1527</v>
+      </c>
+      <c r="I1014" s="0" t="n">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1015" s="1" t="n">
+        <f aca="false">I1034-F1034</f>
+        <v>296</v>
+      </c>
+      <c r="D1015" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1015" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="I1015" s="0" t="n">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1016" s="1" t="n">
+        <f aca="false">I1035-F1035</f>
+        <v>1041</v>
+      </c>
+      <c r="D1016" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1016" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="I1016" s="0" t="n">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1017" s="1" t="n">
+        <f aca="false">I1036-F1036</f>
+        <v>1386</v>
+      </c>
+      <c r="D1017" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1017" s="0" t="n">
+        <v>1362</v>
+      </c>
+      <c r="I1017" s="0" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1018" s="1" t="n">
+        <f aca="false">I1037-F1037</f>
+        <v>8227</v>
+      </c>
+      <c r="D1018" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1018" s="0" t="n">
+        <v>6041</v>
+      </c>
+      <c r="I1018" s="0" t="n">
+        <v>13187</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1019" s="1" t="n">
+        <f aca="false">I1038-F1038</f>
+        <v>100</v>
+      </c>
+      <c r="D1019" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1019" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I1019" s="0" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1020" s="1" t="n">
+        <f aca="false">I1039-F1039</f>
+        <v>479</v>
+      </c>
+      <c r="D1020" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1020" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="I1020" s="0" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1021" s="1" t="n">
+        <f aca="false">I1040-F1040</f>
+        <v>960</v>
+      </c>
+      <c r="D1021" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1021" s="0" t="n">
+        <v>887</v>
+      </c>
+      <c r="I1021" s="0" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1022" s="1" t="n">
+        <f aca="false">I1041-F1041</f>
+        <v>203</v>
+      </c>
+      <c r="D1022" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1022" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="I1022" s="0" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1023" s="1" t="n">
+        <f aca="false">I1042-F1042</f>
+        <v>8353</v>
+      </c>
+      <c r="D1023" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1023" s="0" t="n">
+        <v>7737</v>
+      </c>
+      <c r="I1023" s="0" t="n">
+        <v>15680</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1024" s="1" t="n">
+        <f aca="false">I1043-F1043</f>
+        <v>205</v>
+      </c>
+      <c r="D1024" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1024" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="I1024" s="0" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1025" s="1" t="n">
+        <f aca="false">I1044-F1044</f>
+        <v>430</v>
+      </c>
+      <c r="D1025" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1025" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="I1025" s="0" t="n">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1026" s="1" t="n">
+        <f aca="false">I1045-F1045</f>
+        <v>861</v>
+      </c>
+      <c r="D1026" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1026" s="0" t="n">
+        <v>847</v>
+      </c>
+      <c r="I1026" s="0" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="7" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1027" s="1" t="n">
+        <f aca="false">I1046-F1046</f>
+        <v>2481</v>
+      </c>
+      <c r="D1027" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1027" s="0" t="n">
+        <v>2461</v>
+      </c>
+      <c r="I1027" s="0" t="n">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1028" s="1" t="n">
+        <f aca="false">I1047-F1047</f>
+        <v>8101</v>
+      </c>
+      <c r="D1028" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F1028" s="0" t="n">
+        <v>4940</v>
+      </c>
+      <c r="I1028" s="0" t="n">
+        <v>10932</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029" s="1" t="n">
+        <f aca="false">I1048-F1048</f>
+        <v>1083</v>
+      </c>
+      <c r="D1029" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1029" s="0" t="n">
+        <v>1086</v>
+      </c>
+      <c r="I1029" s="0" t="n">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1030" s="1" t="n">
+        <f aca="false">I1049-F1049</f>
+        <v>898</v>
+      </c>
+      <c r="D1030" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1030" s="0" t="n">
+        <v>894</v>
+      </c>
+      <c r="I1030" s="0" t="n">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1031" s="1" t="n">
+        <f aca="false">I1050-F1050</f>
+        <v>456</v>
+      </c>
+      <c r="D1031" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1031" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="I1031" s="0" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1032" s="1" t="n">
+        <f aca="false">I1051-F1051</f>
+        <v>953</v>
+      </c>
+      <c r="D1032" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1032" s="0" t="n">
+        <v>736</v>
+      </c>
+      <c r="I1032" s="0" t="n">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1033" s="1" t="n">
+        <f aca="false">I1052-F1052</f>
+        <v>1332</v>
+      </c>
+      <c r="D1033" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1033" s="0" t="n">
+        <v>1269</v>
+      </c>
+      <c r="I1033" s="0" t="n">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1034" s="1" t="n">
+        <f aca="false">I1053-F1053</f>
+        <v>403</v>
+      </c>
+      <c r="D1034" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1034" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="I1034" s="0" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1035" s="1" t="n">
+        <f aca="false">I1054-F1054</f>
+        <v>1620</v>
+      </c>
+      <c r="D1035" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1035" s="0" t="n">
+        <v>1202</v>
+      </c>
+      <c r="I1035" s="0" t="n">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1036" s="1" t="n">
+        <f aca="false">I1055-F1055</f>
+        <v>2085</v>
+      </c>
+      <c r="D1036" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1036" s="0" t="n">
+        <v>2038</v>
+      </c>
+      <c r="I1036" s="0" t="n">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1037" s="1" t="n">
+        <f aca="false">I1056-F1056</f>
+        <v>9455</v>
+      </c>
+      <c r="D1037" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1037" s="0" t="n">
+        <v>7815</v>
+      </c>
+      <c r="I1037" s="0" t="n">
+        <v>16042</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1038" s="1" t="n">
+        <f aca="false">I1057-F1057</f>
+        <v>147</v>
+      </c>
+      <c r="D1038" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1038" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="I1038" s="0" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1039" s="1" t="n">
+        <f aca="false">I1058-F1058</f>
+        <v>618</v>
+      </c>
+      <c r="D1039" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1039" s="0" t="n">
+        <v>612</v>
+      </c>
+      <c r="I1039" s="0" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1040" s="1" t="n">
+        <f aca="false">I1059-F1059</f>
+        <v>989</v>
+      </c>
+      <c r="D1040" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1040" s="0" t="n">
+        <v>878</v>
+      </c>
+      <c r="I1040" s="0" t="n">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1041" s="1" t="n">
+        <f aca="false">I1060-F1060</f>
+        <v>319</v>
+      </c>
+      <c r="D1041" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1041" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="I1041" s="0" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1042" s="1" t="n">
+        <f aca="false">I1061-F1061</f>
+        <v>11464</v>
+      </c>
+      <c r="D1042" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1042" s="0" t="n">
+        <v>10594</v>
+      </c>
+      <c r="I1042" s="0" t="n">
+        <v>18947</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1043" s="1" t="n">
+        <f aca="false">I1062-F1062</f>
+        <v>206</v>
+      </c>
+      <c r="D1043" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1043" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="I1043" s="0" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1044" s="1" t="n">
+        <f aca="false">I1063-F1063</f>
+        <v>576</v>
+      </c>
+      <c r="D1044" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1044" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="I1044" s="0" t="n">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1045" s="1" t="n">
+        <f aca="false">I1064-F1064</f>
+        <v>1186</v>
+      </c>
+      <c r="D1045" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1045" s="0" t="n">
+        <v>1169</v>
+      </c>
+      <c r="I1045" s="0" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="7" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1046" s="1" t="n">
+        <f aca="false">I1065-F1065</f>
+        <v>3112</v>
+      </c>
+      <c r="D1046" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1046" s="0" t="n">
+        <v>2892</v>
+      </c>
+      <c r="I1046" s="0" t="n">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1047" s="0" t="n">
+        <v>7177</v>
+      </c>
+      <c r="I1047" s="0" t="n">
+        <v>15278</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1048" s="0" t="n">
+        <v>1438</v>
+      </c>
+      <c r="I1048" s="0" t="n">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1049" s="0" t="n">
+        <v>764</v>
+      </c>
+      <c r="I1049" s="0" t="n">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1050" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="I1050" s="0" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1051" s="0" t="n">
+        <v>799</v>
+      </c>
+      <c r="I1051" s="0" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1052" s="0" t="n">
+        <v>1288</v>
+      </c>
+      <c r="I1052" s="0" t="n">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1053" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="I1053" s="0" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1054" s="0" t="n">
+        <v>1151</v>
+      </c>
+      <c r="I1054" s="0" t="n">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1055" s="0" t="n">
+        <v>2295</v>
+      </c>
+      <c r="I1055" s="0" t="n">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1056" s="0" t="n">
+        <v>4899</v>
+      </c>
+      <c r="I1056" s="0" t="n">
+        <v>14354</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1057" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="I1057" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1058" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="I1058" s="0" t="n">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1059" s="0" t="n">
+        <v>830</v>
+      </c>
+      <c r="I1059" s="0" t="n">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1060" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="I1060" s="0" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1061" s="0" t="n">
+        <v>9926</v>
+      </c>
+      <c r="I1061" s="0" t="n">
+        <v>21390</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1062" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="I1062" s="0" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1063" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="I1063" s="0" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1064" s="0" t="n">
+        <v>1323</v>
+      </c>
+      <c r="I1064" s="0" t="n">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="7" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1065" s="0" t="n">
+        <v>3308</v>
+      </c>
+      <c r="I1065" s="0" t="n">
+        <v>6420</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -231,12 +231,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -310,7 +304,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,13 +325,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1065"/>
+  <dimension ref="A1:K1141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1022" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1045" activeCellId="0" sqref="D1045"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1101" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1121" activeCellId="0" sqref="D1121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -26371,6 +26365,13 @@
       <c r="B1047" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1047" s="1" t="n">
+        <f aca="false">I1066-F1066</f>
+        <v>9365</v>
+      </c>
+      <c r="D1047" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F1047" s="0" t="n">
         <v>7177</v>
       </c>
@@ -26385,6 +26386,13 @@
       <c r="B1048" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C1048" s="1" t="n">
+        <f aca="false">I1067-F1067</f>
+        <v>1426</v>
+      </c>
+      <c r="D1048" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="F1048" s="0" t="n">
         <v>1438</v>
       </c>
@@ -26399,6 +26407,13 @@
       <c r="B1049" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C1049" s="1" t="n">
+        <f aca="false">I1068-F1068</f>
+        <v>765</v>
+      </c>
+      <c r="D1049" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="F1049" s="0" t="n">
         <v>764</v>
       </c>
@@ -26413,6 +26428,13 @@
       <c r="B1050" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C1050" s="1" t="n">
+        <f aca="false">I1069-F1069</f>
+        <v>337</v>
+      </c>
+      <c r="D1050" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F1050" s="0" t="n">
         <v>297</v>
       </c>
@@ -26427,6 +26449,13 @@
       <c r="B1051" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1051" s="1" t="n">
+        <f aca="false">I1070-F1070</f>
+        <v>879</v>
+      </c>
+      <c r="D1051" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="F1051" s="0" t="n">
         <v>799</v>
       </c>
@@ -26441,6 +26470,13 @@
       <c r="B1052" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C1052" s="1" t="n">
+        <f aca="false">I1071-F1071</f>
+        <v>1327</v>
+      </c>
+      <c r="D1052" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="F1052" s="0" t="n">
         <v>1288</v>
       </c>
@@ -26455,6 +26491,13 @@
       <c r="B1053" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C1053" s="1" t="n">
+        <f aca="false">I1072-F1072</f>
+        <v>411</v>
+      </c>
+      <c r="D1053" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="F1053" s="0" t="n">
         <v>412</v>
       </c>
@@ -26469,6 +26512,13 @@
       <c r="B1054" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C1054" s="1" t="n">
+        <f aca="false">I1073-F1073</f>
+        <v>1760</v>
+      </c>
+      <c r="D1054" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="F1054" s="0" t="n">
         <v>1151</v>
       </c>
@@ -26483,6 +26533,13 @@
       <c r="B1055" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C1055" s="1" t="n">
+        <f aca="false">I1074-F1074</f>
+        <v>2353</v>
+      </c>
+      <c r="D1055" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="F1055" s="0" t="n">
         <v>2295</v>
       </c>
@@ -26497,6 +26554,13 @@
       <c r="B1056" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C1056" s="1" t="n">
+        <f aca="false">I1075-F1075</f>
+        <v>8454</v>
+      </c>
+      <c r="D1056" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="F1056" s="0" t="n">
         <v>4899</v>
       </c>
@@ -26511,6 +26575,13 @@
       <c r="B1057" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C1057" s="1" t="n">
+        <f aca="false">I1076-F1076</f>
+        <v>221</v>
+      </c>
+      <c r="D1057" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F1057" s="0" t="n">
         <v>218</v>
       </c>
@@ -26525,6 +26596,13 @@
       <c r="B1058" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C1058" s="1" t="n">
+        <f aca="false">I1077-F1077</f>
+        <v>727</v>
+      </c>
+      <c r="D1058" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="F1058" s="0" t="n">
         <v>711</v>
       </c>
@@ -26539,6 +26617,13 @@
       <c r="B1059" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C1059" s="1" t="n">
+        <f aca="false">I1078-F1078</f>
+        <v>961</v>
+      </c>
+      <c r="D1059" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="F1059" s="0" t="n">
         <v>830</v>
       </c>
@@ -26553,6 +26638,13 @@
       <c r="B1060" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C1060" s="1" t="n">
+        <f aca="false">I1079-F1079</f>
+        <v>320</v>
+      </c>
+      <c r="D1060" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F1060" s="0" t="n">
         <v>317</v>
       </c>
@@ -26567,6 +26659,13 @@
       <c r="B1061" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C1061" s="1" t="n">
+        <f aca="false">I1080-F1080</f>
+        <v>10613</v>
+      </c>
+      <c r="D1061" s="0" t="n">
+        <v>78</v>
+      </c>
       <c r="F1061" s="0" t="n">
         <v>9926</v>
       </c>
@@ -26581,6 +26680,13 @@
       <c r="B1062" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C1062" s="1" t="n">
+        <f aca="false">I1081-F1081</f>
+        <v>221</v>
+      </c>
+      <c r="D1062" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F1062" s="0" t="n">
         <v>215</v>
       </c>
@@ -26595,6 +26701,13 @@
       <c r="B1063" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C1063" s="1" t="n">
+        <f aca="false">I1082-F1082</f>
+        <v>480</v>
+      </c>
+      <c r="D1063" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="F1063" s="0" t="n">
         <v>442</v>
       </c>
@@ -26609,6 +26722,13 @@
       <c r="B1064" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C1064" s="1" t="n">
+        <f aca="false">I1083-F1083</f>
+        <v>1346</v>
+      </c>
+      <c r="D1064" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="F1064" s="0" t="n">
         <v>1323</v>
       </c>
@@ -26623,11 +26743,1481 @@
       <c r="B1065" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C1065" s="1" t="n">
+        <f aca="false">I1084-F1084</f>
+        <v>3364</v>
+      </c>
+      <c r="D1065" s="0" t="n">
+        <v>27</v>
+      </c>
       <c r="F1065" s="0" t="n">
         <v>3308</v>
       </c>
       <c r="I1065" s="0" t="n">
         <v>6420</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1066" s="1" t="n">
+        <f aca="false">I1085-F1085</f>
+        <v>12166</v>
+      </c>
+      <c r="D1066" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1066" s="0" t="n">
+        <v>9690</v>
+      </c>
+      <c r="I1066" s="0" t="n">
+        <v>19055</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1067" s="1" t="n">
+        <f aca="false">I1086-F1086</f>
+        <v>1700</v>
+      </c>
+      <c r="D1067" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1067" s="0" t="n">
+        <v>1707</v>
+      </c>
+      <c r="I1067" s="0" t="n">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1068" s="1" t="n">
+        <f aca="false">I1087-F1087</f>
+        <v>946</v>
+      </c>
+      <c r="D1068" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1068" s="0" t="n">
+        <v>952</v>
+      </c>
+      <c r="I1068" s="0" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1069" s="1" t="n">
+        <f aca="false">I1088-F1088</f>
+        <v>372</v>
+      </c>
+      <c r="D1069" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1069" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="I1069" s="0" t="n">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1070" s="1" t="n">
+        <f aca="false">I1089-F1089</f>
+        <v>1033</v>
+      </c>
+      <c r="D1070" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1070" s="0" t="n">
+        <v>920</v>
+      </c>
+      <c r="I1070" s="0" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1071" s="1" t="n">
+        <f aca="false">I1090-F1090</f>
+        <v>1548</v>
+      </c>
+      <c r="D1071" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1071" s="0" t="n">
+        <v>1537</v>
+      </c>
+      <c r="I1071" s="0" t="n">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1072" s="1" t="n">
+        <f aca="false">I1091-F1091</f>
+        <v>585</v>
+      </c>
+      <c r="D1072" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1072" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="I1072" s="0" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1073" s="1" t="n">
+        <f aca="false">I1092-F1092</f>
+        <v>2314</v>
+      </c>
+      <c r="D1073" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1073" s="0" t="n">
+        <v>1693</v>
+      </c>
+      <c r="I1073" s="0" t="n">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1074" s="1" t="n">
+        <f aca="false">I1093-F1093</f>
+        <v>2471</v>
+      </c>
+      <c r="D1074" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1074" s="0" t="n">
+        <v>2411</v>
+      </c>
+      <c r="I1074" s="0" t="n">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1075" s="1" t="n">
+        <f aca="false">I1094-F1094</f>
+        <v>11146</v>
+      </c>
+      <c r="D1075" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1075" s="0" t="n">
+        <v>8650</v>
+      </c>
+      <c r="I1075" s="0" t="n">
+        <v>17104</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1076" s="1" t="n">
+        <f aca="false">I1095-F1095</f>
+        <v>196</v>
+      </c>
+      <c r="D1076" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1076" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="I1076" s="0" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1077" s="1" t="n">
+        <f aca="false">I1096-F1096</f>
+        <v>802</v>
+      </c>
+      <c r="D1077" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1077" s="0" t="n">
+        <v>794</v>
+      </c>
+      <c r="I1077" s="0" t="n">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1078" s="1" t="n">
+        <f aca="false">I1097-F1097</f>
+        <v>1304</v>
+      </c>
+      <c r="D1078" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1078" s="0" t="n">
+        <v>1154</v>
+      </c>
+      <c r="I1078" s="0" t="n">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1079" s="1" t="n">
+        <f aca="false">I1098-F1098</f>
+        <v>361</v>
+      </c>
+      <c r="D1079" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1079" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="I1079" s="0" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1080" s="1" t="n">
+        <f aca="false">I1099-F1099</f>
+        <v>13798</v>
+      </c>
+      <c r="D1080" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1080" s="0" t="n">
+        <v>13017</v>
+      </c>
+      <c r="I1080" s="0" t="n">
+        <v>23630</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1081" s="1" t="n">
+        <f aca="false">I1100-F1100</f>
+        <v>226</v>
+      </c>
+      <c r="D1081" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1081" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="I1081" s="0" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1082" s="1" t="n">
+        <f aca="false">I1101-F1101</f>
+        <v>539</v>
+      </c>
+      <c r="D1082" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1082" s="0" t="n">
+        <v>486</v>
+      </c>
+      <c r="I1082" s="0" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1083" s="1" t="n">
+        <f aca="false">I1102-F1102</f>
+        <v>1555</v>
+      </c>
+      <c r="D1083" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1083" s="0" t="n">
+        <v>1542</v>
+      </c>
+      <c r="I1083" s="0" t="n">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="7" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1084" s="1" t="n">
+        <f aca="false">I1103-F1103</f>
+        <v>5650</v>
+      </c>
+      <c r="D1084" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1084" s="0" t="n">
+        <v>4606</v>
+      </c>
+      <c r="I1084" s="0" t="n">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1085" s="1" t="n">
+        <f aca="false">I1104-F1104</f>
+        <v>10970</v>
+      </c>
+      <c r="D1085" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F1085" s="0" t="n">
+        <v>9109</v>
+      </c>
+      <c r="I1085" s="0" t="n">
+        <v>21275</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1086" s="1" t="n">
+        <f aca="false">I1105-F1105</f>
+        <v>1858</v>
+      </c>
+      <c r="D1086" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1086" s="0" t="n">
+        <v>1866</v>
+      </c>
+      <c r="I1086" s="0" t="n">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1087" s="1" t="n">
+        <f aca="false">I1106-F1106</f>
+        <v>787</v>
+      </c>
+      <c r="D1087" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1087" s="0" t="n">
+        <v>791</v>
+      </c>
+      <c r="I1087" s="0" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1088" s="1" t="n">
+        <f aca="false">I1107-F1107</f>
+        <v>365</v>
+      </c>
+      <c r="D1088" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1088" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="I1088" s="0" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1089" s="1" t="n">
+        <f aca="false">I1108-F1108</f>
+        <v>1103</v>
+      </c>
+      <c r="D1089" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1089" s="0" t="n">
+        <v>995</v>
+      </c>
+      <c r="I1089" s="0" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1090" s="1" t="n">
+        <f aca="false">I1109-F1109</f>
+        <v>1412</v>
+      </c>
+      <c r="D1090" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1090" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I1090" s="0" t="n">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1091" s="1" t="n">
+        <f aca="false">I1110-F1110</f>
+        <v>749</v>
+      </c>
+      <c r="D1091" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1091" s="0" t="n">
+        <v>749</v>
+      </c>
+      <c r="I1091" s="0" t="n">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1092" s="1" t="n">
+        <f aca="false">I1111-F1111</f>
+        <v>2386</v>
+      </c>
+      <c r="D1092" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1092" s="0" t="n">
+        <v>1937</v>
+      </c>
+      <c r="I1092" s="0" t="n">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1093" s="1" t="n">
+        <f aca="false">I1112-F1112</f>
+        <v>2484</v>
+      </c>
+      <c r="D1093" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1093" s="0" t="n">
+        <v>2440</v>
+      </c>
+      <c r="I1093" s="0" t="n">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1094" s="1" t="n">
+        <f aca="false">I1113-F1113</f>
+        <v>12198</v>
+      </c>
+      <c r="D1094" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1094" s="0" t="n">
+        <v>8801</v>
+      </c>
+      <c r="I1094" s="0" t="n">
+        <v>19947</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1095" s="1" t="n">
+        <f aca="false">I1114-F1114</f>
+        <v>110</v>
+      </c>
+      <c r="D1095" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1095" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I1095" s="0" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1096" s="1" t="n">
+        <f aca="false">I1115-F1115</f>
+        <v>605</v>
+      </c>
+      <c r="D1096" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1096" s="0" t="n">
+        <v>607</v>
+      </c>
+      <c r="I1096" s="0" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1097" s="1" t="n">
+        <f aca="false">I1116-F1116</f>
+        <v>1355</v>
+      </c>
+      <c r="D1097" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1097" s="0" t="n">
+        <v>1214</v>
+      </c>
+      <c r="I1097" s="0" t="n">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1098" s="1" t="n">
+        <f aca="false">I1117-F1117</f>
+        <v>452</v>
+      </c>
+      <c r="D1098" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1098" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="I1098" s="0" t="n">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1099" s="1" t="n">
+        <f aca="false">I1118-F1118</f>
+        <v>13958</v>
+      </c>
+      <c r="D1099" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1099" s="0" t="n">
+        <v>13236</v>
+      </c>
+      <c r="I1099" s="0" t="n">
+        <v>27034</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1100" s="1" t="n">
+        <f aca="false">I1119-F1119</f>
+        <v>169</v>
+      </c>
+      <c r="D1100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1100" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="I1100" s="0" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1101" s="1" t="n">
+        <f aca="false">I1120-F1120</f>
+        <v>512</v>
+      </c>
+      <c r="D1101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1101" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="I1101" s="0" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1102" s="1" t="n">
+        <f aca="false">I1121-F1121</f>
+        <v>1210</v>
+      </c>
+      <c r="D1102" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1102" s="0" t="n">
+        <v>1201</v>
+      </c>
+      <c r="I1102" s="0" t="n">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="7" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1103" s="1" t="n">
+        <f aca="false">I1122-F1122</f>
+        <v>5864</v>
+      </c>
+      <c r="D1103" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1103" s="0" t="n">
+        <v>5769</v>
+      </c>
+      <c r="I1103" s="0" t="n">
+        <v>11419</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1104" s="1" t="n">
+        <f aca="false">I1123-F1123</f>
+        <v>9595</v>
+      </c>
+      <c r="D1104" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F1104" s="0" t="n">
+        <v>8105</v>
+      </c>
+      <c r="I1104" s="0" t="n">
+        <v>19075</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1105" s="1" t="n">
+        <f aca="false">I1124-F1124</f>
+        <v>1899</v>
+      </c>
+      <c r="D1105" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1105" s="0" t="n">
+        <v>1910</v>
+      </c>
+      <c r="I1105" s="0" t="n">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1106" s="1" t="n">
+        <f aca="false">I1125-F1125</f>
+        <v>722</v>
+      </c>
+      <c r="D1106" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1106" s="0" t="n">
+        <v>724</v>
+      </c>
+      <c r="I1106" s="0" t="n">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1107" s="1" t="n">
+        <f aca="false">I1126-F1126</f>
+        <v>399</v>
+      </c>
+      <c r="D1107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1107" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="I1107" s="0" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1108" s="1" t="n">
+        <f aca="false">I1127-F1127</f>
+        <v>1238</v>
+      </c>
+      <c r="D1108" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1108" s="0" t="n">
+        <v>1146</v>
+      </c>
+      <c r="I1108" s="0" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1109" s="1" t="n">
+        <f aca="false">I1128-F1128</f>
+        <v>1045</v>
+      </c>
+      <c r="D1109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1109" s="0" t="n">
+        <v>1040</v>
+      </c>
+      <c r="I1109" s="0" t="n">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1110" s="1" t="n">
+        <f aca="false">I1129-F1129</f>
+        <v>743</v>
+      </c>
+      <c r="D1110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1110" s="0" t="n">
+        <v>744</v>
+      </c>
+      <c r="I1110" s="0" t="n">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1111" s="1" t="n">
+        <f aca="false">I1130-F1130</f>
+        <v>2377</v>
+      </c>
+      <c r="D1111" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1111" s="0" t="n">
+        <v>1889</v>
+      </c>
+      <c r="I1111" s="0" t="n">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1112" s="1" t="n">
+        <f aca="false">I1131-F1131</f>
+        <v>2303</v>
+      </c>
+      <c r="D1112" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1112" s="0" t="n">
+        <v>2233</v>
+      </c>
+      <c r="I1112" s="0" t="n">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1113" s="1" t="n">
+        <f aca="false">I1132-F1132</f>
+        <v>12181</v>
+      </c>
+      <c r="D1113" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1113" s="0" t="n">
+        <v>10313</v>
+      </c>
+      <c r="I1113" s="0" t="n">
+        <v>22511</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1114" s="1" t="n">
+        <f aca="false">I1133-F1133</f>
+        <v>69</v>
+      </c>
+      <c r="D1114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1114" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="I1114" s="0" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1115" s="1" t="n">
+        <f aca="false">I1134-F1134</f>
+        <v>555</v>
+      </c>
+      <c r="D1115" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1115" s="0" t="n">
+        <v>548</v>
+      </c>
+      <c r="I1115" s="0" t="n">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1116" s="1" t="n">
+        <f aca="false">I1135-F1135</f>
+        <v>1420</v>
+      </c>
+      <c r="D1116" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1116" s="0" t="n">
+        <v>1321</v>
+      </c>
+      <c r="I1116" s="0" t="n">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1117" s="1" t="n">
+        <f aca="false">I1136-F1136</f>
+        <v>458</v>
+      </c>
+      <c r="D1117" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="0" t="n">
+        <v>449</v>
+      </c>
+      <c r="I1117" s="0" t="n">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1118" s="1" t="n">
+        <f aca="false">I1137-F1137</f>
+        <v>13006</v>
+      </c>
+      <c r="D1118" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1118" s="0" t="n">
+        <v>12356</v>
+      </c>
+      <c r="I1118" s="0" t="n">
+        <v>26314</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1119" s="1" t="n">
+        <f aca="false">I1138-F1138</f>
+        <v>174</v>
+      </c>
+      <c r="D1119" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1119" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="I1119" s="0" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1120" s="1" t="n">
+        <f aca="false">I1139-F1139</f>
+        <v>588</v>
+      </c>
+      <c r="D1120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1120" s="0" t="n">
+        <v>545</v>
+      </c>
+      <c r="I1120" s="0" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1121" s="1" t="n">
+        <f aca="false">I1140-F1140</f>
+        <v>1126</v>
+      </c>
+      <c r="D1121" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1121" s="0" t="n">
+        <v>1121</v>
+      </c>
+      <c r="I1121" s="0" t="n">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="7" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1122" s="1" t="n">
+        <f aca="false">I1141-F1141</f>
+        <v>5767</v>
+      </c>
+      <c r="D1122" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1122" s="0" t="n">
+        <v>5609</v>
+      </c>
+      <c r="I1122" s="0" t="n">
+        <v>11473</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1123" s="0" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I1123" s="0" t="n">
+        <v>16323</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1124" s="0" t="n">
+        <v>2054</v>
+      </c>
+      <c r="I1124" s="0" t="n">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1125" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="I1125" s="0" t="n">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1126" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="I1126" s="0" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1127" s="0" t="n">
+        <v>835</v>
+      </c>
+      <c r="I1127" s="0" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1128" s="0" t="n">
+        <v>972</v>
+      </c>
+      <c r="I1128" s="0" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1129" s="0" t="n">
+        <v>653</v>
+      </c>
+      <c r="I1129" s="0" t="n">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1130" s="0" t="n">
+        <v>1773</v>
+      </c>
+      <c r="I1130" s="0" t="n">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1131" s="0" t="n">
+        <v>1863</v>
+      </c>
+      <c r="I1131" s="0" t="n">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1132" s="0" t="n">
+        <v>7651</v>
+      </c>
+      <c r="I1132" s="0" t="n">
+        <v>19832</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1133" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1133" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1134" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="I1134" s="0" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1135" s="0" t="n">
+        <v>1143</v>
+      </c>
+      <c r="I1135" s="0" t="n">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1136" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="I1136" s="0" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1137" s="0" t="n">
+        <v>8931</v>
+      </c>
+      <c r="I1137" s="0" t="n">
+        <v>21937</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1138" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="I1138" s="0" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1139" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="I1139" s="0" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1140" s="0" t="n">
+        <v>898</v>
+      </c>
+      <c r="I1140" s="0" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="7" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1141" s="0" t="n">
+        <v>4522</v>
+      </c>
+      <c r="I1141" s="0" t="n">
+        <v>10289</v>
       </c>
     </row>
   </sheetData>

--- a/ccaa_semanal_14_7_recalculo.xlsx
+++ b/ccaa_semanal_14_7_recalculo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -325,13 +325,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1141"/>
+  <dimension ref="A1:K1217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1101" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1121" activeCellId="0" sqref="D1121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1190" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1123" activeCellId="0" sqref="A1123:B1198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -27961,6 +27961,13 @@
       <c r="B1123" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1123" s="1" t="n">
+        <f aca="false">I1142-F1142</f>
+        <v>8205</v>
+      </c>
+      <c r="D1123" s="0" t="n">
+        <v>45</v>
+      </c>
       <c r="F1123" s="0" t="n">
         <v>6728</v>
       </c>
@@ -27975,6 +27982,13 @@
       <c r="B1124" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C1124" s="1" t="n">
+        <f aca="false">I1143-F1143</f>
+        <v>2048</v>
+      </c>
+      <c r="D1124" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="F1124" s="0" t="n">
         <v>2054</v>
       </c>
@@ -27989,6 +28003,13 @@
       <c r="B1125" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C1125" s="1" t="n">
+        <f aca="false">I1144-F1144</f>
+        <v>476</v>
+      </c>
+      <c r="D1125" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="F1125" s="0" t="n">
         <v>477</v>
       </c>
@@ -28003,6 +28024,13 @@
       <c r="B1126" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C1126" s="1" t="n">
+        <f aca="false">I1145-F1145</f>
+        <v>337</v>
+      </c>
+      <c r="D1126" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F1126" s="0" t="n">
         <v>295</v>
       </c>
@@ -28017,6 +28045,13 @@
       <c r="B1127" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1127" s="1" t="n">
+        <f aca="false">I1146-F1146</f>
+        <v>913</v>
+      </c>
+      <c r="D1127" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="F1127" s="0" t="n">
         <v>835</v>
       </c>
@@ -28031,6 +28066,13 @@
       <c r="B1128" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C1128" s="1" t="n">
+        <f aca="false">I1147-F1147</f>
+        <v>981</v>
+      </c>
+      <c r="D1128" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="F1128" s="0" t="n">
         <v>972</v>
       </c>
@@ -28045,6 +28087,13 @@
       <c r="B1129" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C1129" s="1" t="n">
+        <f aca="false">I1148-F1148</f>
+        <v>653</v>
+      </c>
+      <c r="D1129" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F1129" s="0" t="n">
         <v>653</v>
       </c>
@@ -28059,6 +28108,13 @@
       <c r="B1130" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C1130" s="1" t="n">
+        <f aca="false">I1149-F1149</f>
+        <v>2189</v>
+      </c>
+      <c r="D1130" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="F1130" s="0" t="n">
         <v>1773</v>
       </c>
@@ -28073,6 +28129,13 @@
       <c r="B1131" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C1131" s="1" t="n">
+        <f aca="false">I1150-F1150</f>
+        <v>1917</v>
+      </c>
+      <c r="D1131" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="F1131" s="0" t="n">
         <v>1863</v>
       </c>
@@ -28087,6 +28150,13 @@
       <c r="B1132" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C1132" s="1" t="n">
+        <f aca="false">I1151-F1151</f>
+        <v>9649</v>
+      </c>
+      <c r="D1132" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="F1132" s="0" t="n">
         <v>7651</v>
       </c>
@@ -28101,6 +28171,13 @@
       <c r="B1133" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C1133" s="1" t="n">
+        <f aca="false">I1152-F1152</f>
+        <v>18</v>
+      </c>
+      <c r="D1133" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="F1133" s="0" t="n">
         <v>18</v>
       </c>
@@ -28115,6 +28192,13 @@
       <c r="B1134" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C1134" s="1" t="n">
+        <f aca="false">I1153-F1153</f>
+        <v>505</v>
+      </c>
+      <c r="D1134" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F1134" s="0" t="n">
         <v>504</v>
       </c>
@@ -28129,6 +28213,13 @@
       <c r="B1135" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C1135" s="1" t="n">
+        <f aca="false">I1154-F1154</f>
+        <v>1281</v>
+      </c>
+      <c r="D1135" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="F1135" s="0" t="n">
         <v>1143</v>
       </c>
@@ -28143,6 +28234,13 @@
       <c r="B1136" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C1136" s="1" t="n">
+        <f aca="false">I1155-F1155</f>
+        <v>404</v>
+      </c>
+      <c r="D1136" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="F1136" s="0" t="n">
         <v>403</v>
       </c>
@@ -28157,6 +28255,13 @@
       <c r="B1137" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C1137" s="1" t="n">
+        <f aca="false">I1156-F1156</f>
+        <v>9529</v>
+      </c>
+      <c r="D1137" s="0" t="n">
+        <v>61</v>
+      </c>
       <c r="F1137" s="0" t="n">
         <v>8931</v>
       </c>
@@ -28171,6 +28276,13 @@
       <c r="B1138" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C1138" s="1" t="n">
+        <f aca="false">I1157-F1157</f>
+        <v>93</v>
+      </c>
+      <c r="D1138" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="F1138" s="0" t="n">
         <v>92</v>
       </c>
@@ -28185,6 +28297,13 @@
       <c r="B1139" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C1139" s="1" t="n">
+        <f aca="false">I1158-F1158</f>
+        <v>525</v>
+      </c>
+      <c r="D1139" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F1139" s="0" t="n">
         <v>470</v>
       </c>
@@ -28199,6 +28318,13 @@
       <c r="B1140" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C1140" s="1" t="n">
+        <f aca="false">I1159-F1159</f>
+        <v>903</v>
+      </c>
+      <c r="D1140" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="F1140" s="0" t="n">
         <v>898</v>
       </c>
@@ -28213,11 +28339,1481 @@
       <c r="B1141" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C1141" s="1" t="n">
+        <f aca="false">I1160-F1160</f>
+        <v>4548</v>
+      </c>
+      <c r="D1141" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="F1141" s="0" t="n">
         <v>4522</v>
       </c>
       <c r="I1141" s="0" t="n">
         <v>10289</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1142" s="1" t="n">
+        <f aca="false">I1161-F1161</f>
+        <v>7753</v>
+      </c>
+      <c r="D1142" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1142" s="0" t="n">
+        <v>6282</v>
+      </c>
+      <c r="I1142" s="0" t="n">
+        <v>14487</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1143" s="1" t="n">
+        <f aca="false">I1162-F1162</f>
+        <v>1395</v>
+      </c>
+      <c r="D1143" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1143" s="0" t="n">
+        <v>1401</v>
+      </c>
+      <c r="I1143" s="0" t="n">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1144" s="1" t="n">
+        <f aca="false">I1163-F1163</f>
+        <v>370</v>
+      </c>
+      <c r="D1144" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1144" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="I1144" s="0" t="n">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1145" s="1" t="n">
+        <f aca="false">I1164-F1164</f>
+        <v>281</v>
+      </c>
+      <c r="D1145" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1145" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="I1145" s="0" t="n">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1146" s="1" t="n">
+        <f aca="false">I1165-F1165</f>
+        <v>778</v>
+      </c>
+      <c r="D1146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1146" s="0" t="n">
+        <v>710</v>
+      </c>
+      <c r="I1146" s="0" t="n">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1147" s="1" t="n">
+        <f aca="false">I1166-F1166</f>
+        <v>925</v>
+      </c>
+      <c r="D1147" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1147" s="0" t="n">
+        <v>911</v>
+      </c>
+      <c r="I1147" s="0" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1148" s="1" t="n">
+        <f aca="false">I1167-F1167</f>
+        <v>368</v>
+      </c>
+      <c r="D1148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1148" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="I1148" s="0" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1149" s="1" t="n">
+        <f aca="false">I1168-F1168</f>
+        <v>1789</v>
+      </c>
+      <c r="D1149" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1149" s="0" t="n">
+        <v>1431</v>
+      </c>
+      <c r="I1149" s="0" t="n">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1150" s="1" t="n">
+        <f aca="false">I1169-F1169</f>
+        <v>1674</v>
+      </c>
+      <c r="D1150" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1150" s="0" t="n">
+        <v>1641</v>
+      </c>
+      <c r="I1150" s="0" t="n">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1151" s="1" t="n">
+        <f aca="false">I1170-F1170</f>
+        <v>6738</v>
+      </c>
+      <c r="D1151" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1151" s="0" t="n">
+        <v>5883</v>
+      </c>
+      <c r="I1151" s="0" t="n">
+        <v>15532</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1152" s="1" t="n">
+        <f aca="false">I1171-F1171</f>
+        <v>4</v>
+      </c>
+      <c r="D1152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1152" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1152" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1153" s="1" t="n">
+        <f aca="false">I1172-F1172</f>
+        <v>411</v>
+      </c>
+      <c r="D1153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1153" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="I1153" s="0" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1154" s="1" t="n">
+        <f aca="false">I1173-F1173</f>
+        <v>1261</v>
+      </c>
+      <c r="D1154" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1154" s="0" t="n">
+        <v>1145</v>
+      </c>
+      <c r="I1154" s="0" t="n">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1155" s="1" t="n">
+        <f aca="false">I1174-F1174</f>
+        <v>261</v>
+      </c>
+      <c r="D1155" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1155" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="I1155" s="0" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1156" s="1" t="n">
+        <f aca="false">I1175-F1175</f>
+        <v>8966</v>
+      </c>
+      <c r="D1156" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F1156" s="0" t="n">
+        <v>8602</v>
+      </c>
+      <c r="I1156" s="0" t="n">
+        <v>18131</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1157" s="1" t="n">
+        <f aca="false">I1176-F1176</f>
+        <v>137</v>
+      </c>
+      <c r="D1157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1157" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="I1157" s="0" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1158" s="1" t="n">
+        <f aca="false">I1177-F1177</f>
+        <v>490</v>
+      </c>
+      <c r="D1158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1158" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="I1158" s="0" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1159" s="1" t="n">
+        <f aca="false">I1178-F1178</f>
+        <v>639</v>
+      </c>
+      <c r="D1159" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1159" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="I1159" s="0" t="n">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1160" s="1" t="n">
+        <f aca="false">I1179-F1179</f>
+        <v>3337</v>
+      </c>
+      <c r="D1160" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1160" s="0" t="n">
+        <v>2853</v>
+      </c>
+      <c r="I1160" s="0" t="n">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1161" s="1" t="n">
+        <f aca="false">I1180-F1180</f>
+        <v>7431</v>
+      </c>
+      <c r="D1161" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1161" s="0" t="n">
+        <v>6159</v>
+      </c>
+      <c r="I1161" s="0" t="n">
+        <v>13912</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1162" s="1" t="n">
+        <f aca="false">I1181-F1181</f>
+        <v>1274</v>
+      </c>
+      <c r="D1162" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1162" s="0" t="n">
+        <v>1280</v>
+      </c>
+      <c r="I1162" s="0" t="n">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1163" s="1" t="n">
+        <f aca="false">I1182-F1182</f>
+        <v>359</v>
+      </c>
+      <c r="D1163" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1163" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="I1163" s="0" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1164" s="1" t="n">
+        <f aca="false">I1183-F1183</f>
+        <v>243</v>
+      </c>
+      <c r="D1164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1164" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="I1164" s="0" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1165" s="1" t="n">
+        <f aca="false">I1184-F1184</f>
+        <v>861</v>
+      </c>
+      <c r="D1165" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1165" s="0" t="n">
+        <v>722</v>
+      </c>
+      <c r="I1165" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1166" s="1" t="n">
+        <f aca="false">I1185-F1185</f>
+        <v>878</v>
+      </c>
+      <c r="D1166" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1166" s="0" t="n">
+        <v>873</v>
+      </c>
+      <c r="I1166" s="0" t="n">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1167" s="1" t="n">
+        <f aca="false">I1186-F1186</f>
+        <v>226</v>
+      </c>
+      <c r="D1167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1167" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="I1167" s="0" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1168" s="1" t="n">
+        <f aca="false">I1187-F1187</f>
+        <v>1501</v>
+      </c>
+      <c r="D1168" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1168" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="I1168" s="0" t="n">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1169" s="1" t="n">
+        <f aca="false">I1188-F1188</f>
+        <v>1672</v>
+      </c>
+      <c r="D1169" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1169" s="0" t="n">
+        <v>1623</v>
+      </c>
+      <c r="I1169" s="0" t="n">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1170" s="1" t="n">
+        <f aca="false">I1189-F1189</f>
+        <v>5739</v>
+      </c>
+      <c r="D1170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1170" s="0" t="n">
+        <v>5064</v>
+      </c>
+      <c r="I1170" s="0" t="n">
+        <v>11802</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1171" s="1" t="n">
+        <f aca="false">I1190-F1190</f>
+        <v>6</v>
+      </c>
+      <c r="D1171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1171" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1171" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1172" s="1" t="n">
+        <f aca="false">I1191-F1191</f>
+        <v>448</v>
+      </c>
+      <c r="D1172" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1172" s="0" t="n">
+        <v>447</v>
+      </c>
+      <c r="I1172" s="0" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1173" s="1" t="n">
+        <f aca="false">I1192-F1192</f>
+        <v>1047</v>
+      </c>
+      <c r="D1173" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1173" s="0" t="n">
+        <v>925</v>
+      </c>
+      <c r="I1173" s="0" t="n">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1174" s="1" t="n">
+        <f aca="false">I1193-F1193</f>
+        <v>210</v>
+      </c>
+      <c r="D1174" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1174" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="I1174" s="0" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1175" s="1" t="n">
+        <f aca="false">I1194-F1194</f>
+        <v>7249</v>
+      </c>
+      <c r="D1175" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F1175" s="0" t="n">
+        <v>6924</v>
+      </c>
+      <c r="I1175" s="0" t="n">
+        <v>15890</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1176" s="1" t="n">
+        <f aca="false">I1195-F1195</f>
+        <v>80</v>
+      </c>
+      <c r="D1176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1176" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="I1176" s="0" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1177" s="1" t="n">
+        <f aca="false">I1196-F1196</f>
+        <v>566</v>
+      </c>
+      <c r="D1177" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1177" s="0" t="n">
+        <v>516</v>
+      </c>
+      <c r="I1177" s="0" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1178" s="1" t="n">
+        <f aca="false">I1197-F1197</f>
+        <v>472</v>
+      </c>
+      <c r="D1178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1178" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="I1178" s="0" t="n">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="7" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1179" s="1" t="n">
+        <f aca="false">I1198-F1198</f>
+        <v>2286</v>
+      </c>
+      <c r="D1179" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1179" s="0" t="n">
+        <v>2264</v>
+      </c>
+      <c r="I1179" s="0" t="n">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1180" s="1" t="n">
+        <f aca="false">I1199-F1199</f>
+        <v>7850</v>
+      </c>
+      <c r="D1180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1180" s="0" t="n">
+        <v>6446</v>
+      </c>
+      <c r="I1180" s="0" t="n">
+        <v>13877</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1181" s="1" t="n">
+        <f aca="false">I1200-F1200</f>
+        <v>1074</v>
+      </c>
+      <c r="D1181" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1181" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="I1181" s="0" t="n">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1182" s="1" t="n">
+        <f aca="false">I1201-F1201</f>
+        <v>334</v>
+      </c>
+      <c r="D1182" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1182" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="I1182" s="0" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1183" s="1" t="n">
+        <f aca="false">I1202-F1202</f>
+        <v>248</v>
+      </c>
+      <c r="D1183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1183" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="I1183" s="0" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1184" s="1" t="n">
+        <f aca="false">I1203-F1203</f>
+        <v>913</v>
+      </c>
+      <c r="D1184" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1184" s="0" t="n">
+        <v>780</v>
+      </c>
+      <c r="I1184" s="0" t="n">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1185" s="1" t="n">
+        <f aca="false">I1204-F1204</f>
+        <v>816</v>
+      </c>
+      <c r="D1185" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1185" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="I1185" s="0" t="n">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1186" s="1" t="n">
+        <f aca="false">I1205-F1205</f>
+        <v>257</v>
+      </c>
+      <c r="D1186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1186" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="I1186" s="0" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1187" s="1" t="n">
+        <f aca="false">I1206-F1206</f>
+        <v>1323</v>
+      </c>
+      <c r="D1187" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1187" s="0" t="n">
+        <v>833</v>
+      </c>
+      <c r="I1187" s="0" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1188" s="1" t="n">
+        <f aca="false">I1207-F1207</f>
+        <v>1610</v>
+      </c>
+      <c r="D1188" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1188" s="0" t="n">
+        <v>1561</v>
+      </c>
+      <c r="I1188" s="0" t="n">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1189" s="1" t="n">
+        <f aca="false">I1208-F1208</f>
+        <v>4737</v>
+      </c>
+      <c r="D1189" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1189" s="0" t="n">
+        <v>3789</v>
+      </c>
+      <c r="I1189" s="0" t="n">
+        <v>9528</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1190" s="1" t="n">
+        <f aca="false">I1209-F1209</f>
+        <v>11</v>
+      </c>
+      <c r="D1190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1190" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I1190" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1191" s="1" t="n">
+        <f aca="false">I1210-F1210</f>
+        <v>412</v>
+      </c>
+      <c r="D1191" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1191" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="I1191" s="0" t="n">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1192" s="1" t="n">
+        <f aca="false">I1211-F1211</f>
+        <v>1052</v>
+      </c>
+      <c r="D1192" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1192" s="0" t="n">
+        <v>953</v>
+      </c>
+      <c r="I1192" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1193" s="1" t="n">
+        <f aca="false">I1212-F1212</f>
+        <v>295</v>
+      </c>
+      <c r="D1193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1193" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="I1193" s="0" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1194" s="1" t="n">
+        <f aca="false">I1213-F1213</f>
+        <v>6140</v>
+      </c>
+      <c r="D1194" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1194" s="0" t="n">
+        <v>5759</v>
+      </c>
+      <c r="I1194" s="0" t="n">
+        <v>13008</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1195" s="1" t="n">
+        <f aca="false">I1214-F1214</f>
+        <v>82</v>
+      </c>
+      <c r="D1195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1195" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="I1195" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1196" s="1" t="n">
+        <f aca="false">I1215-F1215</f>
+        <v>587</v>
+      </c>
+      <c r="D1196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1196" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="I1196" s="0" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1197" s="1" t="n">
+        <f aca="false">I1216-F1216</f>
+        <v>418</v>
+      </c>
+      <c r="D1197" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1197" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="I1197" s="0" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="7" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1198" s="1" t="n">
+        <f aca="false">I1217-F1217</f>
+        <v>2198</v>
+      </c>
+      <c r="D1198" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1198" s="0" t="n">
+        <v>2192</v>
+      </c>
+      <c r="I1198" s="0" t="n">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1199" s="0" t="n">
+        <v>7454</v>
+      </c>
+      <c r="I1199" s="0" t="n">
+        <v>15304</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1200" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1200" s="0" t="n">
+        <v>915</v>
+      </c>
+      <c r="I1200" s="0" t="n">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1201" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1201" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="I1201" s="0" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1202" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1202" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="I1202" s="0" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1203" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1203" s="0" t="n">
+        <v>924</v>
+      </c>
+      <c r="I1203" s="0" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1204" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1204" s="0" t="n">
+        <v>717</v>
+      </c>
+      <c r="I1204" s="0" t="n">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1205" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1205" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="I1205" s="0" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1206" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1206" s="0" t="n">
+        <v>726</v>
+      </c>
+      <c r="I1206" s="0" t="n">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1207" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1207" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="I1207" s="0" t="n">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1208" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1208" s="0" t="n">
+        <v>3267</v>
+      </c>
+      <c r="I1208" s="0" t="n">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1209" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1209" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1210" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1210" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="I1210" s="0" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1211" s="0" t="n">
+        <v>669</v>
+      </c>
+      <c r="I1211" s="0" t="n">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1212" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1212" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="I1212" s="0" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1213" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1213" s="0" t="n">
+        <v>4734</v>
+      </c>
+      <c r="I1213" s="0" t="n">
+        <v>10874</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1214" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="I1214" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1215" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1215" s="0" t="n">
+        <v>437</v>
+      </c>
+      <c r="I1215" s="0" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1216" s="0" t="n">
+        <v>507</v>
+      </c>
+      <c r="I1216" s="0" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1217" s="7" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1217" s="0" t="n">
+        <v>2179</v>
+      </c>
+      <c r="I1217" s="0" t="n">
+        <v>4377</v>
       </c>
     </row>
   </sheetData>
